--- a/feature_analysis/metabolite_f.xlsx
+++ b/feature_analysis/metabolite_f.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -584,32 +584,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -632,9 +975,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -642,11 +1227,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -929,19 +1566,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,10 +1605,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>223.5692898613565</v>
+        <v>223.569289861357</v>
       </c>
       <c r="D2">
-        <v>3.894499755792006E-10</v>
+        <v>3.89449975579201e-10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -974,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>190.5175101425306</v>
+        <v>190.517510142531</v>
       </c>
       <c r="D3">
-        <v>9.233939819849606E-10</v>
+        <v>9.23393981984961e-10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -988,10 +1633,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>100.4160680262325</v>
+        <v>100.416068026232</v>
       </c>
       <c r="D4">
-        <v>2.830776696310975E-08</v>
+        <v>2.83077669631097e-8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1002,10 +1647,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>97.18355591486473</v>
+        <v>97.1835559148647</v>
       </c>
       <c r="D5">
-        <v>3.365516005595157E-08</v>
+        <v>3.36551600559516e-8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1019,7 +1664,7 @@
         <v>94.7270471204946</v>
       </c>
       <c r="D6">
-        <v>3.852846812278153E-08</v>
+        <v>3.85284681227815e-8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1030,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>83.48147345038744</v>
+        <v>83.4814734503874</v>
       </c>
       <c r="D7">
-        <v>7.49493500453371E-08</v>
+        <v>7.49493500453371e-8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1044,10 +1689,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>78.38400767481315</v>
+        <v>78.3840076748131</v>
       </c>
       <c r="D8">
-        <v>1.04288611065065E-07</v>
+        <v>1.04288611065065e-7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1061,7 +1706,7 @@
         <v>74.0545581692401</v>
       </c>
       <c r="D9">
-        <v>1.403604037585777E-07</v>
+        <v>1.40360403758578e-7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1072,10 +1717,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>69.07393500252564</v>
+        <v>69.0739350025256</v>
       </c>
       <c r="D10">
-        <v>2.017531360134748E-07</v>
+        <v>2.01753136013475e-7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1086,10 +1731,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>68.65199456650868</v>
+        <v>68.6519945665087</v>
       </c>
       <c r="D11">
-        <v>2.082857798033642E-07</v>
+        <v>2.08285779803364e-7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1100,10 +1745,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>53.48002306449263</v>
+        <v>53.4800230644926</v>
       </c>
       <c r="D12">
-        <v>7.559349572484153E-07</v>
+        <v>7.55934957248415e-7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1114,10 +1759,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>50.34466119059582</v>
+        <v>50.3446611905958</v>
       </c>
       <c r="D13">
-        <v>1.029303041298809E-06</v>
+        <v>1.02930304129881e-6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1128,10 +1773,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>46.36250522904068</v>
+        <v>46.3625052290407</v>
       </c>
       <c r="D14">
-        <v>1.564677887077513E-06</v>
+        <v>1.56467788707751e-6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1142,10 +1787,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>40.15565713278452</v>
+        <v>40.1556571327845</v>
       </c>
       <c r="D15">
-        <v>3.226885560707899E-06</v>
+        <v>3.2268855607079e-6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1156,10 +1801,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>37.77332671891163</v>
+        <v>37.7733267189116</v>
       </c>
       <c r="D16">
-        <v>4.378706567860585E-06</v>
+        <v>4.37870656786059e-6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1170,10 +1815,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>36.18177069849634</v>
+        <v>36.1817706984963</v>
       </c>
       <c r="D17">
-        <v>5.422357816025058E-06</v>
+        <v>5.42235781602506e-6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1184,10 +1829,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>30.92180920567614</v>
+        <v>30.9218092056761</v>
       </c>
       <c r="D18">
-        <v>1.173594026123013E-05</v>
+        <v>1.17359402612301e-5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1198,10 +1843,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>29.47785771664647</v>
+        <v>29.4778577166465</v>
       </c>
       <c r="D19">
-        <v>1.48060922444748E-05</v>
+        <v>1.48060922444748e-5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1212,10 +1857,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>27.88127148562085</v>
+        <v>27.8812714856209</v>
       </c>
       <c r="D20">
-        <v>1.937427272777447E-05</v>
+        <v>1.93742727277745e-5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1226,10 +1871,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>26.75405421270192</v>
+        <v>26.7540542127019</v>
       </c>
       <c r="D21">
-        <v>2.361852973095385E-05</v>
+        <v>2.36185297309539e-5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1240,10 +1885,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>26.02909633208036</v>
+        <v>26.0290963320804</v>
       </c>
       <c r="D22">
-        <v>2.693156599070151E-05</v>
+        <v>2.69315659907015e-5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1254,10 +1899,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>25.64814660920892</v>
+        <v>25.6481466092089</v>
       </c>
       <c r="D23">
-        <v>2.889163245292853E-05</v>
+        <v>2.88916324529285e-5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1268,10 +1913,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>25.38415866073416</v>
+        <v>25.3841586607342</v>
       </c>
       <c r="D24">
-        <v>3.034908765598372E-05</v>
+        <v>3.03490876559837e-5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1282,10 +1927,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>25.14367177636129</v>
+        <v>25.1436717763613</v>
       </c>
       <c r="D25">
-        <v>3.17529508469299E-05</v>
+        <v>3.17529508469299e-5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1296,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>24.91760274521349</v>
+        <v>24.9176027452135</v>
       </c>
       <c r="D26">
-        <v>3.314311635105943E-05</v>
+        <v>3.31431163510594e-5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1310,10 +1955,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>24.60020897234756</v>
+        <v>24.6002089723476</v>
       </c>
       <c r="D27">
-        <v>3.521817656173831E-05</v>
+        <v>3.52181765617383e-5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1324,10 +1969,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>23.42806104339815</v>
+        <v>23.4280610433981</v>
       </c>
       <c r="D28">
-        <v>4.433688554898121E-05</v>
+        <v>4.43368855489812e-5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1338,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>23.07526775733071</v>
+        <v>23.0752677573307</v>
       </c>
       <c r="D29">
-        <v>4.761015616536748E-05</v>
+        <v>4.76101561653675e-5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1352,10 +1997,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>22.13478447839857</v>
+        <v>22.1347844783986</v>
       </c>
       <c r="D30">
-        <v>5.783279405190781E-05</v>
+        <v>5.78327940519078e-5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1366,10 +2011,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>21.75581137070763</v>
+        <v>21.7558113707076</v>
       </c>
       <c r="D31">
-        <v>6.267218481605936E-05</v>
+        <v>6.26721848160594e-5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1383,7 +2028,7 @@
         <v>21.5217190776684</v>
       </c>
       <c r="D32">
-        <v>6.590071049130208E-05</v>
+        <v>6.59007104913021e-5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1394,10 +2039,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>20.99911896676874</v>
+        <v>20.9991189667687</v>
       </c>
       <c r="D33">
-        <v>7.384501554242201E-05</v>
+        <v>7.3845015542422e-5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1408,10 +2053,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>20.35615570537743</v>
+        <v>20.3561557053774</v>
       </c>
       <c r="D34">
-        <v>8.522593101109546E-05</v>
+        <v>8.52259310110955e-5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1422,10 +2067,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>20.21654291307092</v>
+        <v>20.2165429130709</v>
       </c>
       <c r="D35">
-        <v>8.796408911718531E-05</v>
+        <v>8.79640891171853e-5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1436,10 +2081,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>19.90598558935644</v>
+        <v>19.9059855893564</v>
       </c>
       <c r="D36">
-        <v>9.443659326644979E-05</v>
+        <v>9.44365932664498e-5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1450,10 +2095,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>19.82905868561228</v>
+        <v>19.8290586856123</v>
       </c>
       <c r="D37">
-        <v>9.61258213206923E-05</v>
+        <v>9.61258213206923e-5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1464,10 +2109,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>19.47008766458303</v>
+        <v>19.470087664583</v>
       </c>
       <c r="D38">
-        <v>0.0001044963534282366</v>
+        <v>0.000104496353428237</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1478,10 +2123,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>19.41962092114402</v>
+        <v>19.419620921144</v>
       </c>
       <c r="D39">
-        <v>0.0001057409702823542</v>
+        <v>0.000105740970282354</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1492,10 +2137,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>19.24574553255806</v>
+        <v>19.2457455325581</v>
       </c>
       <c r="D40">
-        <v>0.0001101653037613398</v>
+        <v>0.00011016530376134</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1509,7 +2154,7 @@
         <v>19.0115984412958</v>
       </c>
       <c r="D41">
-        <v>0.0001164737558099086</v>
+        <v>0.000116473755809909</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1520,10 +2165,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>18.23131277901914</v>
+        <v>18.2313127790191</v>
       </c>
       <c r="D42">
-        <v>0.0001408080050122512</v>
+        <v>0.000140808005012251</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1534,10 +2179,10 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>17.02373560893713</v>
+        <v>17.0237356089371</v>
       </c>
       <c r="D43">
-        <v>0.0001914314505079305</v>
+        <v>0.000191431450507931</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1551,7 +2196,7 @@
         <v>16.9987829962333</v>
       </c>
       <c r="D44">
-        <v>0.0001926856318147835</v>
+        <v>0.000192685631814783</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1562,10 +2207,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>16.42315935304587</v>
+        <v>16.4231593530459</v>
       </c>
       <c r="D45">
-        <v>0.0002245031440071238</v>
+        <v>0.000224503144007124</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1576,7 +2221,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>16.12546054867373</v>
+        <v>16.1254605486737</v>
       </c>
       <c r="D46">
         <v>0.000243379441526569</v>
@@ -1590,10 +2235,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>16.03815463856894</v>
+        <v>16.0381546385689</v>
       </c>
       <c r="D47">
-        <v>0.0002492667463881505</v>
+        <v>0.00024926674638815</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1604,10 +2249,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>15.55602270472582</v>
+        <v>15.5560227047258</v>
       </c>
       <c r="D48">
-        <v>0.0002849786851889047</v>
+        <v>0.000284978685188905</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1618,10 +2263,10 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>15.10785198731725</v>
+        <v>15.1078519873173</v>
       </c>
       <c r="D49">
-        <v>0.0003237121641372683</v>
+        <v>0.000323712164137268</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1632,10 +2277,10 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>14.78001946804612</v>
+        <v>14.7800194680461</v>
       </c>
       <c r="D50">
-        <v>0.0003560155827356508</v>
+        <v>0.000356015582735651</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1649,7 +2294,7 @@
         <v>14.0604447196327</v>
       </c>
       <c r="D51">
-        <v>0.0004412820197923138</v>
+        <v>0.000441282019792314</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1660,7 +2305,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>13.43325819167474</v>
+        <v>13.4332581916747</v>
       </c>
       <c r="D52">
         <v>0.000535865072312159</v>
@@ -1674,10 +2319,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>11.83552415078266</v>
+        <v>11.8355241507827</v>
       </c>
       <c r="D53">
-        <v>0.0009085027056148765</v>
+        <v>0.000908502705614876</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1688,10 +2333,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>11.56428638957039</v>
+        <v>11.5642863895704</v>
       </c>
       <c r="D54">
-        <v>0.0009988858579993358</v>
+        <v>0.000998885857999336</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1702,10 +2347,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>11.51568071643841</v>
+        <v>11.5156807164384</v>
       </c>
       <c r="D55">
-        <v>0.001016183499241294</v>
+        <v>0.00101618349924129</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1716,10 +2361,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>11.47089705124989</v>
+        <v>11.4708970512499</v>
       </c>
       <c r="D56">
-        <v>0.001032434768020787</v>
+        <v>0.00103243476802079</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1730,10 +2375,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>11.00269190635178</v>
+        <v>11.0026919063518</v>
       </c>
       <c r="D57">
-        <v>0.001222104286324059</v>
+        <v>0.00122210428632406</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1744,10 +2389,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>10.77661171942074</v>
+        <v>10.7766117194207</v>
       </c>
       <c r="D58">
-        <v>0.001328282145718283</v>
+        <v>0.00132828214571828</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1758,10 +2403,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>10.53599079503154</v>
+        <v>10.5359907950315</v>
       </c>
       <c r="D59">
-        <v>0.001453470749663479</v>
+        <v>0.00145347074966348</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1772,10 +2417,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>10.46960201991648</v>
+        <v>10.4696020199165</v>
       </c>
       <c r="D60">
-        <v>0.001490429335306904</v>
+        <v>0.0014904293353069</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1786,10 +2431,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>9.771077039698762</v>
+        <v>9.77107703969876</v>
       </c>
       <c r="D61">
-        <v>0.001954998122066768</v>
+        <v>0.00195499812206677</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1800,10 +2445,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>9.572303780576666</v>
+        <v>9.57230378057667</v>
       </c>
       <c r="D62">
-        <v>0.002117179419635748</v>
+        <v>0.00211717941963575</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1814,10 +2459,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>9.569712519835706</v>
+        <v>9.56971251983571</v>
       </c>
       <c r="D63">
-        <v>0.002119396246049961</v>
+        <v>0.00211939624604996</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1828,10 +2473,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>9.433117240955866</v>
+        <v>9.43311724095587</v>
       </c>
       <c r="D64">
-        <v>0.002240229132639919</v>
+        <v>0.00224022913263992</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1842,10 +2487,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>8.500625510579827</v>
+        <v>8.50062551057983</v>
       </c>
       <c r="D65">
-        <v>0.003322194604756733</v>
+        <v>0.00332219460475673</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1859,7 +2504,7 @@
         <v>8.43089688696165</v>
       </c>
       <c r="D66">
-        <v>0.003425485228626345</v>
+        <v>0.00342548522862635</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1870,10 +2515,10 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>7.989606501974902</v>
+        <v>7.9896065019749</v>
       </c>
       <c r="D67">
-        <v>0.004174573247179166</v>
+        <v>0.00417457324717917</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1884,10 +2529,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>7.877676734537222</v>
+        <v>7.87767673453722</v>
       </c>
       <c r="D68">
-        <v>0.004394306118141675</v>
+        <v>0.00439430611814167</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1898,10 +2543,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>7.828595649641556</v>
+        <v>7.82859564964156</v>
       </c>
       <c r="D69">
-        <v>0.004494943398472277</v>
+        <v>0.00449494339847228</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1926,7 +2571,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>7.170857293542782</v>
+        <v>7.17085729354278</v>
       </c>
       <c r="D71">
         <v>0.00614476028723871</v>
@@ -1940,10 +2585,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>7.022235387262338</v>
+        <v>7.02223538726234</v>
       </c>
       <c r="D72">
-        <v>0.006610980458521609</v>
+        <v>0.00661098045852161</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1954,10 +2599,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>6.885477947764561</v>
+        <v>6.88547794776456</v>
       </c>
       <c r="D73">
-        <v>0.007077210505570742</v>
+        <v>0.00707721050557074</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1968,10 +2613,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>6.820494329273298</v>
+        <v>6.8204943292733</v>
       </c>
       <c r="D74">
-        <v>0.007312275777173196</v>
+        <v>0.0073122757771732</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1982,7 +2627,7 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>6.672116775700961</v>
+        <v>6.67211677570096</v>
       </c>
       <c r="D75">
         <v>0.00788436763309331</v>
@@ -1996,10 +2641,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>6.244188427876357</v>
+        <v>6.24418842787636</v>
       </c>
       <c r="D76">
-        <v>0.009854854069120445</v>
+        <v>0.00985485406912045</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2010,10 +2655,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>6.232326753012297</v>
+        <v>6.2323267530123</v>
       </c>
       <c r="D77">
-        <v>0.009917248289229852</v>
+        <v>0.00991724828922985</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2024,10 +2669,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>6.159724897775662</v>
+        <v>6.15972489777566</v>
       </c>
       <c r="D78">
-        <v>0.01030944405623495</v>
+        <v>0.0103094440562349</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2038,10 +2683,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>5.865594476560684</v>
+        <v>5.86559447656068</v>
       </c>
       <c r="D79">
-        <v>0.01209723846331336</v>
+        <v>0.0120972384633134</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2055,7 +2700,7 @@
         <v>5.78757880198751</v>
       </c>
       <c r="D80">
-        <v>0.01263113958454925</v>
+        <v>0.0126311395845493</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2066,10 +2711,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>5.707466031139022</v>
+        <v>5.70746603113902</v>
       </c>
       <c r="D81">
-        <v>0.01320849442102207</v>
+        <v>0.0132084944210221</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2080,10 +2725,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>5.555066881954483</v>
+        <v>5.55506688195448</v>
       </c>
       <c r="D82">
-        <v>0.01439485593288118</v>
+        <v>0.0143948559328812</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2094,10 +2739,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>5.521476039111512</v>
+        <v>5.52147603911151</v>
       </c>
       <c r="D83">
-        <v>0.01467295279349829</v>
+        <v>0.0146729527934983</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2108,10 +2753,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>5.464397287495812</v>
+        <v>5.46439728749581</v>
       </c>
       <c r="D84">
-        <v>0.01516013836111797</v>
+        <v>0.015160138361118</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2125,7 +2770,7 @@
         <v>5.45569727117226</v>
       </c>
       <c r="D85">
-        <v>0.01523605580386497</v>
+        <v>0.015236055803865</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2136,10 +2781,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>5.437350861531968</v>
+        <v>5.43735086153197</v>
       </c>
       <c r="D86">
-        <v>0.01539761974326041</v>
+        <v>0.0153976197432604</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2150,10 +2795,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>5.324517307008936</v>
+        <v>5.32451730700894</v>
       </c>
       <c r="D87">
-        <v>0.01643677217213239</v>
+        <v>0.0164367721721324</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2164,10 +2809,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>5.308748897026651</v>
+        <v>5.30874889702665</v>
       </c>
       <c r="D88">
-        <v>0.01658847060116328</v>
+        <v>0.0165884706011633</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2181,7 +2826,7 @@
         <v>5.19922403404568</v>
       </c>
       <c r="D89">
-        <v>0.01768879982799161</v>
+        <v>0.0176887998279916</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2192,10 +2837,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>5.154853307565441</v>
+        <v>5.15485330756544</v>
       </c>
       <c r="D90">
-        <v>0.01815884628378049</v>
+        <v>0.0181588462837805</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2206,10 +2851,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>4.939275530233109</v>
+        <v>4.93927553023311</v>
       </c>
       <c r="D91">
-        <v>0.02066262602710558</v>
+        <v>0.0206626260271056</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2220,10 +2865,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>4.923373961238837</v>
+        <v>4.92337396123884</v>
       </c>
       <c r="D92">
-        <v>0.02086287442529711</v>
+        <v>0.0208628744252971</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2234,10 +2879,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>4.814468740008294</v>
+        <v>4.81446874000829</v>
       </c>
       <c r="D93">
-        <v>0.02229731041741811</v>
+        <v>0.0222973104174181</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2248,10 +2893,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>4.690137620966079</v>
+        <v>4.69013762096608</v>
       </c>
       <c r="D94">
-        <v>0.02407891719988843</v>
+        <v>0.0240789171998884</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2265,7 +2910,7 @@
         <v>4.52989481616259</v>
       </c>
       <c r="D95">
-        <v>0.02662779103426095</v>
+        <v>0.0266277910342609</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2279,7 +2924,7 @@
         <v>4.26914196068245</v>
       </c>
       <c r="D96">
-        <v>0.03148602443538107</v>
+        <v>0.0314860244353811</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2290,10 +2935,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>3.881371370726863</v>
+        <v>3.88137137072686</v>
       </c>
       <c r="D97">
-        <v>0.04077635702865188</v>
+        <v>0.0407763570286519</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2307,7 +2952,7 @@
         <v>3.15677216908264</v>
       </c>
       <c r="D98">
-        <v>0.06831310655563794</v>
+        <v>0.0683131065556379</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2318,10 +2963,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>3.122302626643005</v>
+        <v>3.122302626643</v>
       </c>
       <c r="D99">
-        <v>0.07009128624596392</v>
+        <v>0.0700912862459639</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2332,10 +2977,10 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>3.109875641332608</v>
+        <v>3.10987564133261</v>
       </c>
       <c r="D100">
-        <v>0.07074555097961133</v>
+        <v>0.0707455509796113</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2346,10 +2991,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>3.061984070336814</v>
+        <v>3.06198407033681</v>
       </c>
       <c r="D101">
-        <v>0.07333445589804725</v>
+        <v>0.0733344558980473</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2360,10 +3005,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>3.003976869601339</v>
+        <v>3.00397686960134</v>
       </c>
       <c r="D102">
-        <v>0.07661941677037175</v>
+        <v>0.0766194167703717</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2374,10 +3019,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>2.803502703136826</v>
+        <v>2.80350270313683</v>
       </c>
       <c r="D103">
-        <v>0.08936824294084827</v>
+        <v>0.0893682429408483</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2388,7 +3033,7 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>2.541588588628132</v>
+        <v>2.54158858862813</v>
       </c>
       <c r="D104">
         <v>0.109925789670721</v>
@@ -2402,10 +3047,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>2.526599651824484</v>
+        <v>2.52659965182448</v>
       </c>
       <c r="D105">
-        <v>0.1112592956442974</v>
+        <v>0.111259295644297</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2416,10 +3061,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>2.522910594706651</v>
+        <v>2.52291059470665</v>
       </c>
       <c r="D106">
-        <v>0.1115903628536086</v>
+        <v>0.111590362853609</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2433,7 +3078,7 @@
         <v>2.52066999387035</v>
       </c>
       <c r="D107">
-        <v>0.1117919979369676</v>
+        <v>0.111791997936968</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2444,10 +3089,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>2.507638122164113</v>
+        <v>2.50763812216411</v>
       </c>
       <c r="D108">
-        <v>0.1129731515027171</v>
+        <v>0.112973151502717</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2458,7 +3103,7 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>2.470271074952256</v>
+        <v>2.47027107495226</v>
       </c>
       <c r="D109">
         <v>0.116440859048546</v>
@@ -2472,10 +3117,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>2.419072293279839</v>
+        <v>2.41907229327984</v>
       </c>
       <c r="D110">
-        <v>0.1213940624862383</v>
+        <v>0.121394062486238</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2486,10 +3131,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>2.358606937830675</v>
+        <v>2.35860693783067</v>
       </c>
       <c r="D111">
-        <v>0.1275605331733688</v>
+        <v>0.127560533173369</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2500,10 +3145,10 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>2.291666392190702</v>
+        <v>2.2916663921907</v>
       </c>
       <c r="D112">
-        <v>0.1348135098877001</v>
+        <v>0.1348135098877</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2514,10 +3159,10 @@
         <v>114</v>
       </c>
       <c r="C113">
-        <v>2.279145276330957</v>
+        <v>2.27914527633096</v>
       </c>
       <c r="D113">
-        <v>0.1362223890864425</v>
+        <v>0.136222389086442</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2528,10 +3173,10 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>2.260833200183235</v>
+        <v>2.26083320018324</v>
       </c>
       <c r="D114">
-        <v>0.1383135439405555</v>
+        <v>0.138313543940556</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2545,7 +3190,7 @@
         <v>2.1445280740498</v>
       </c>
       <c r="D115">
-        <v>0.1524917850550912</v>
+        <v>0.152491785055091</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2556,10 +3201,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>2.067170834883813</v>
+        <v>2.06717083488381</v>
       </c>
       <c r="D116">
-        <v>0.1628478726540113</v>
+        <v>0.162847872654011</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2570,10 +3215,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>2.063108016870111</v>
+        <v>2.06310801687011</v>
       </c>
       <c r="D117">
-        <v>0.1634137021743667</v>
+        <v>0.163413702174367</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2584,10 +3229,10 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>1.991913834613978</v>
+        <v>1.99191383461398</v>
       </c>
       <c r="D118">
-        <v>0.1737040469707394</v>
+        <v>0.173704046970739</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2598,10 +3243,10 @@
         <v>120</v>
       </c>
       <c r="C119">
-        <v>1.946875304198294</v>
+        <v>1.94687530419829</v>
       </c>
       <c r="D119">
-        <v>0.1805966538570647</v>
+        <v>0.180596653857065</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2612,10 +3257,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>1.879529908022787</v>
+        <v>1.87952990802279</v>
       </c>
       <c r="D120">
-        <v>0.1914942841763577</v>
+        <v>0.191494284176358</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2626,10 +3271,10 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>1.778598970213058</v>
+        <v>1.77859897021306</v>
       </c>
       <c r="D121">
-        <v>0.2092600429385639</v>
+        <v>0.209260042938564</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2640,10 +3285,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>1.743659056193106</v>
+        <v>1.74365905619311</v>
       </c>
       <c r="D122">
-        <v>0.2158411759797673</v>
+        <v>0.215841175979767</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2654,7 +3299,7 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>1.711072500673012</v>
+        <v>1.71107250067301</v>
       </c>
       <c r="D123">
         <v>0.222191272487772</v>
@@ -2668,10 +3313,10 @@
         <v>125</v>
       </c>
       <c r="C124">
-        <v>1.573405914673351</v>
+        <v>1.57340591467335</v>
       </c>
       <c r="D124">
-        <v>0.2514536346632358</v>
+        <v>0.251453634663236</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2682,10 +3327,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>1.526753019124501</v>
+        <v>1.5267530191245</v>
       </c>
       <c r="D125">
-        <v>0.2623360218159995</v>
+        <v>0.262336021816</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2696,10 +3341,10 @@
         <v>127</v>
       </c>
       <c r="C126">
-        <v>1.491468693269786</v>
+        <v>1.49146869326979</v>
       </c>
       <c r="D126">
-        <v>0.2709174837820551</v>
+        <v>0.270917483782055</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2710,10 +3355,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>1.480967359641295</v>
+        <v>1.48096735964129</v>
       </c>
       <c r="D127">
-        <v>0.2735318026901933</v>
+        <v>0.273531802690193</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2724,10 +3369,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>1.452267649978004</v>
+        <v>1.452267649978</v>
       </c>
       <c r="D128">
-        <v>0.2808214837691941</v>
+        <v>0.280821483769194</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2738,7 +3383,7 @@
         <v>130</v>
       </c>
       <c r="C129">
-        <v>1.331539660312675</v>
+        <v>1.33153966031268</v>
       </c>
       <c r="D129">
         <v>0.313943937337993</v>
@@ -2752,10 +3397,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>1.308127508273026</v>
+        <v>1.30812750827303</v>
       </c>
       <c r="D130">
-        <v>0.3208553055054512</v>
+        <v>0.320855305505451</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2766,10 +3411,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>1.227933985341278</v>
+        <v>1.22793398534128</v>
       </c>
       <c r="D131">
-        <v>0.3458255880880871</v>
+        <v>0.345825588088087</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2780,10 +3425,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>1.224598088639369</v>
+        <v>1.22459808863937</v>
       </c>
       <c r="D132">
-        <v>0.3469093755064621</v>
+        <v>0.346909375506462</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2794,10 +3439,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>1.209631342960094</v>
+        <v>1.20963134296009</v>
       </c>
       <c r="D133">
-        <v>0.3518176330993866</v>
+        <v>0.351817633099387</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2808,10 +3453,10 @@
         <v>135</v>
       </c>
       <c r="C134">
-        <v>1.170940097206485</v>
+        <v>1.17094009720648</v>
       </c>
       <c r="D134">
-        <v>0.3648595606479683</v>
+        <v>0.364859560647968</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2822,10 +3467,10 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>1.147078049440574</v>
+        <v>1.14707804944057</v>
       </c>
       <c r="D135">
-        <v>0.3731633781461532</v>
+        <v>0.373163378146153</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2839,7 +3484,7 @@
         <v>1.14600809199063</v>
       </c>
       <c r="D136">
-        <v>0.3735404654097668</v>
+        <v>0.373540465409767</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2853,7 +3498,7 @@
         <v>1.11563257117186</v>
       </c>
       <c r="D137">
-        <v>0.3844188238428141</v>
+        <v>0.384418823842814</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2864,10 +3509,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>1.112015485893993</v>
+        <v>1.11201548589399</v>
       </c>
       <c r="D138">
-        <v>0.3857367272374681</v>
+        <v>0.385736727237468</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2878,10 +3523,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>1.111911060571134</v>
+        <v>1.11191106057113</v>
       </c>
       <c r="D139">
-        <v>0.3857748470632058</v>
+        <v>0.385774847063206</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2895,7 +3540,7 @@
         <v>1.09283701294968</v>
       </c>
       <c r="D140">
-        <v>0.3928058923145161</v>
+        <v>0.392805892314516</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2906,10 +3551,10 @@
         <v>142</v>
       </c>
       <c r="C141">
-        <v>1.089774295152409</v>
+        <v>1.08977429515241</v>
       </c>
       <c r="D141">
-        <v>0.3939475886795759</v>
+        <v>0.393947588679576</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2920,7 +3565,7 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>1.077289616118409</v>
+        <v>1.07728961611841</v>
       </c>
       <c r="D142">
         <v>0.398638336420649</v>
@@ -2948,10 +3593,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>0.9838260439072094</v>
+        <v>0.983826043907209</v>
       </c>
       <c r="D144">
-        <v>0.4356934620542838</v>
+        <v>0.435693462054284</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2962,10 +3607,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>0.8923695225061689</v>
+        <v>0.892369522506169</v>
       </c>
       <c r="D145">
-        <v>0.4754512102916376</v>
+        <v>0.475451210291638</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2976,10 +3621,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>0.8686146518442766</v>
+        <v>0.868614651844277</v>
       </c>
       <c r="D146">
-        <v>0.4863747840746648</v>
+        <v>0.486374784074665</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2990,10 +3635,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>0.8492335436253456</v>
+        <v>0.849233543625346</v>
       </c>
       <c r="D147">
-        <v>0.4954751057044042</v>
+        <v>0.495475105704404</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3004,10 +3649,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>0.8433407028867825</v>
+        <v>0.843340702886783</v>
       </c>
       <c r="D148">
-        <v>0.4982759010586967</v>
+        <v>0.498275901058697</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3018,10 +3663,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>0.8134532304230826</v>
+        <v>0.813453230423083</v>
       </c>
       <c r="D149">
-        <v>0.5127266284615851</v>
+        <v>0.512726628461585</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3046,10 +3691,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>0.7357285373247203</v>
+        <v>0.73572853732472</v>
       </c>
       <c r="D151">
-        <v>0.5522650551351058</v>
+        <v>0.552265055135106</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3060,10 +3705,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>0.7175507763537551</v>
+        <v>0.717550776353755</v>
       </c>
       <c r="D152">
-        <v>0.5619274459614625</v>
+        <v>0.561927445961462</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3074,10 +3719,10 @@
         <v>154</v>
       </c>
       <c r="C153">
-        <v>0.7043312785613293</v>
+        <v>0.704331278561329</v>
       </c>
       <c r="D153">
-        <v>0.5690543037508333</v>
+        <v>0.569054303750833</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3088,10 +3733,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>0.7001708982756225</v>
+        <v>0.700170898275623</v>
       </c>
       <c r="D154">
-        <v>0.5713147066627295</v>
+        <v>0.57131470666273</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3102,7 +3747,7 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>0.6981870168212826</v>
+        <v>0.698187016821283</v>
       </c>
       <c r="D155">
         <v>0.572395530546545</v>
@@ -3116,10 +3761,10 @@
         <v>157</v>
       </c>
       <c r="C156">
-        <v>0.6974707993946127</v>
+        <v>0.697470799394613</v>
       </c>
       <c r="D156">
-        <v>0.5727861956484616</v>
+        <v>0.572786195648462</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3130,7 +3775,7 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>0.6960701066484254</v>
+        <v>0.696070106648425</v>
       </c>
       <c r="D157">
         <v>0.573550929562664</v>
@@ -3144,10 +3789,10 @@
         <v>159</v>
       </c>
       <c r="C158">
-        <v>0.6842537316727273</v>
+        <v>0.684253731672727</v>
       </c>
       <c r="D158">
-        <v>0.5800401174478185</v>
+        <v>0.580040117447818</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3161,7 +3806,7 @@
         <v>0.656842100113148</v>
       </c>
       <c r="D159">
-        <v>0.5953544217698601</v>
+        <v>0.59535442176986</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3172,10 +3817,10 @@
         <v>161</v>
       </c>
       <c r="C160">
-        <v>0.6466860416072887</v>
+        <v>0.646686041607289</v>
       </c>
       <c r="D160">
-        <v>0.6011209206748935</v>
+        <v>0.601120920674894</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3186,10 +3831,10 @@
         <v>162</v>
       </c>
       <c r="C161">
-        <v>0.6426019118977288</v>
+        <v>0.642601911897729</v>
       </c>
       <c r="D161">
-        <v>0.6034539376650532</v>
+        <v>0.603453937665053</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3200,7 +3845,7 @@
         <v>163</v>
       </c>
       <c r="C162">
-        <v>0.5758190164258589</v>
+        <v>0.575819016425859</v>
       </c>
       <c r="D162">
         <v>0.642743017073408</v>
@@ -3214,10 +3859,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>0.5634143737369386</v>
+        <v>0.563414373736939</v>
       </c>
       <c r="D163">
-        <v>0.6502748854529721</v>
+        <v>0.650274885452972</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3228,10 +3873,10 @@
         <v>165</v>
       </c>
       <c r="C164">
-        <v>0.5587030802497762</v>
+        <v>0.558703080249776</v>
       </c>
       <c r="D164">
-        <v>0.6531544070305635</v>
+        <v>0.653154407030563</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3242,10 +3887,10 @@
         <v>166</v>
       </c>
       <c r="C165">
-        <v>0.5513058620934481</v>
+        <v>0.551305862093448</v>
       </c>
       <c r="D165">
-        <v>0.6576964253159423</v>
+        <v>0.657696425315942</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3256,10 +3901,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>0.5456420009764228</v>
+        <v>0.545642000976423</v>
       </c>
       <c r="D166">
-        <v>0.6611912820709185</v>
+        <v>0.661191282070918</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3270,10 +3915,10 @@
         <v>168</v>
       </c>
       <c r="C167">
-        <v>0.4701052329890617</v>
+        <v>0.470105232989062</v>
       </c>
       <c r="D167">
-        <v>0.7091745285829061</v>
+        <v>0.709174528582906</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3284,10 +3929,10 @@
         <v>169</v>
       </c>
       <c r="C168">
-        <v>0.4679786179596264</v>
+        <v>0.467978617959626</v>
       </c>
       <c r="D168">
-        <v>0.7105608653328626</v>
+        <v>0.710560865332863</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3301,7 +3946,7 @@
         <v>0.456461062315857</v>
       </c>
       <c r="D169">
-        <v>0.7181009100473879</v>
+        <v>0.718100910047388</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3312,10 +3957,10 @@
         <v>171</v>
       </c>
       <c r="C170">
-        <v>0.4533298195686778</v>
+        <v>0.453329819568678</v>
       </c>
       <c r="D170">
-        <v>0.7201599413734004</v>
+        <v>0.7201599413734</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3326,10 +3971,10 @@
         <v>172</v>
       </c>
       <c r="C171">
-        <v>0.4431938358642215</v>
+        <v>0.443193835864222</v>
       </c>
       <c r="D171">
-        <v>0.7268513286979505</v>
+        <v>0.726851328697951</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3340,10 +3985,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>0.4113258384139249</v>
+        <v>0.411325838413925</v>
       </c>
       <c r="D172">
-        <v>0.7481379551494565</v>
+        <v>0.748137955149456</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3357,7 +4002,7 @@
         <v>0.337055024824063</v>
       </c>
       <c r="D173">
-        <v>0.7989743280098012</v>
+        <v>0.798974328009801</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3368,10 +4013,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>0.3283408033256344</v>
+        <v>0.328340803325634</v>
       </c>
       <c r="D174">
-        <v>0.8050240413374825</v>
+        <v>0.805024041337483</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3382,10 +4027,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>0.3279723172749217</v>
+        <v>0.327972317274922</v>
       </c>
       <c r="D175">
-        <v>0.8052801370334461</v>
+        <v>0.805280137033446</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3396,10 +4041,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>0.2834568224921265</v>
+        <v>0.283456822492127</v>
       </c>
       <c r="D176">
-        <v>0.8363300816089263</v>
+        <v>0.836330081608926</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3413,7 +4058,7 @@
         <v>0.265008452707218</v>
       </c>
       <c r="D177">
-        <v>0.8492195701696263</v>
+        <v>0.849219570169626</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3424,10 +4069,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>0.2622826921179732</v>
+        <v>0.262282692117973</v>
       </c>
       <c r="D178">
-        <v>0.8511225374669594</v>
+        <v>0.851122537466959</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3441,7 +4086,7 @@
         <v>0.236320741212084</v>
       </c>
       <c r="D179">
-        <v>0.8692008269872886</v>
+        <v>0.869200826987289</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3452,10 +4097,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>0.2314093574871037</v>
+        <v>0.231409357487104</v>
       </c>
       <c r="D180">
-        <v>0.8726067886176407</v>
+        <v>0.872606788617641</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3466,10 +4111,10 @@
         <v>182</v>
       </c>
       <c r="C181">
-        <v>0.2165989133765068</v>
+        <v>0.216598913376507</v>
       </c>
       <c r="D181">
-        <v>0.8828376305150931</v>
+        <v>0.882837630515093</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3483,7 +4128,7 @@
         <v>0.17703759379954</v>
       </c>
       <c r="D182">
-        <v>0.9097241464023951</v>
+        <v>0.909724146402395</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3494,10 +4139,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>0.1550172722138767</v>
+        <v>0.155017272213877</v>
       </c>
       <c r="D183">
-        <v>0.9242675261403915</v>
+        <v>0.924267526140392</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3511,7 +4156,7 @@
         <v>0.135694352404964</v>
       </c>
       <c r="D184">
-        <v>0.9366693353766349</v>
+        <v>0.936669335376635</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3522,10 +4167,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>0.07420689038683156</v>
+        <v>0.0742068903868316</v>
       </c>
       <c r="D185">
-        <v>0.9726006069572855</v>
+        <v>0.972600606957285</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3536,13 +4181,14 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>0.04477599822689084</v>
+        <v>0.0447759982268908</v>
       </c>
       <c r="D186">
-        <v>0.9867281955563771</v>
+        <v>0.986728195556377</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/feature_analysis/metabolite_f.xlsx
+++ b/feature_analysis/metabolite_f.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>metabolite name</t>
   </si>
@@ -25,934 +25,594 @@
     <t>P_value</t>
   </si>
   <si>
+    <t>Arachidonic acid_HMDB0001043</t>
+  </si>
+  <si>
+    <t>2-Aminobenzoic acid_HMDB0001123</t>
+  </si>
+  <si>
+    <t>7b-Hydroxycholesterol_ HMDB0006119</t>
+  </si>
+  <si>
+    <t>Phosphoenolpyruvic acid_HMDB0000263</t>
+  </si>
+  <si>
+    <t>Triethanolamine_HMDB0032538</t>
+  </si>
+  <si>
+    <t>L-Methionine_HMDB0000696</t>
+  </si>
+  <si>
+    <t>Oleic acid_HMDB0000207</t>
+  </si>
+  <si>
+    <t>4-Hydroxybenzoic acid_HMDB0000500</t>
+  </si>
+  <si>
+    <t>L-Phenylalanine_HMDB0000159</t>
+  </si>
+  <si>
+    <t>Ornithine_HMDB0000214.1</t>
+  </si>
+  <si>
+    <t>Palmitoleic acid_HMDB0003229</t>
+  </si>
+  <si>
+    <t>Dopamine_HMDB0000073</t>
+  </si>
+  <si>
+    <t>Ethanolamine_HMDB0000149</t>
+  </si>
+  <si>
+    <t>Beta-Alanine_HMDB0000056.1</t>
+  </si>
+  <si>
+    <t>Glycerol_HMDB0000131</t>
+  </si>
+  <si>
+    <t>D-Ribose 5-phosphate_HMDB0001548.1</t>
+  </si>
+  <si>
+    <t>D-Mannose_HMDB0000169.1</t>
+  </si>
+  <si>
+    <t>L-Threonine_HMDB0000167</t>
+  </si>
+  <si>
+    <t>L-Alanine_HMDB0000161</t>
+  </si>
+  <si>
+    <t>L-Lysine_HMDB0000182.1</t>
+  </si>
+  <si>
+    <t>alpha-Glucose 1,6-bisphosphate_HMDB0003514</t>
+  </si>
+  <si>
+    <t>L-Histidine_HMDB0000177</t>
+  </si>
+  <si>
+    <t>Elaidic acid_HMDB0000573</t>
+  </si>
+  <si>
+    <t>Glycine_HMDB0000123.1</t>
+  </si>
+  <si>
+    <t>D-Mannose_HMDB0000169</t>
+  </si>
+  <si>
+    <t>Tyramine_HMDB0000306</t>
+  </si>
+  <si>
+    <t>L-Aspartic acid_HMDB0000191</t>
+  </si>
+  <si>
+    <t>L-Isoleucine_HMDB0000172</t>
+  </si>
+  <si>
+    <t>N-Acetylserine_HMDB0002931</t>
+  </si>
+  <si>
+    <t>L-Serine_HMDB0000187</t>
+  </si>
+  <si>
+    <t>O-Phosphoethanolamine_HMDB0000224</t>
+  </si>
+  <si>
+    <t>Creatinine_HMDB0000562</t>
+  </si>
+  <si>
+    <t>D-Glucose_HMDB0000122</t>
+  </si>
+  <si>
+    <t>D-Ribulose 5-phosphate_HMDB0000618</t>
+  </si>
+  <si>
+    <t>L-Leucine_HMDB0000687</t>
+  </si>
+  <si>
+    <t>3-Aminoisobutanoic acid_HMDB0003911</t>
+  </si>
+  <si>
+    <t>Myristic acid_HMDB0000806</t>
+  </si>
+  <si>
+    <t>D-Tagatose_HMDB0003418</t>
+  </si>
+  <si>
+    <t>N-Acetylglutamine_HMDB0006029</t>
+  </si>
+  <si>
+    <t>D-Glucose_HMDB0000122.1</t>
+  </si>
+  <si>
+    <t>D-Ribose 5-phosphate_HMDB0001548</t>
+  </si>
+  <si>
+    <t>Hypotaurine_HMDB0000965</t>
+  </si>
+  <si>
+    <t>Linoleic acid_HMDB0000673</t>
+  </si>
+  <si>
+    <t>L-Lactic acid_HMDB0000190</t>
+  </si>
+  <si>
+    <t>L-Dihydroorotic acid_HMDB0003349</t>
+  </si>
+  <si>
+    <t>ITSD_Valine</t>
+  </si>
+  <si>
+    <t>D-Arabinose_HMDB0029942</t>
+  </si>
+  <si>
+    <t>L-Valine_HMDB0000883</t>
+  </si>
+  <si>
+    <t>D-Ribose_HMDB0000283</t>
+  </si>
+  <si>
+    <t>Caproic acid_HMDB0000535</t>
+  </si>
+  <si>
+    <t>Glyoxylic acid_HMDB0000119</t>
+  </si>
+  <si>
+    <t>Dimethylglycine_HMDB0000092</t>
+  </si>
+  <si>
+    <t>Heptadecanoic acid_HMDB0002259</t>
+  </si>
+  <si>
+    <t>Adipic acid_HMDB0000448</t>
+  </si>
+  <si>
+    <t>D-Alpha-aminobutyric acid_HMDB0000650</t>
+  </si>
+  <si>
+    <t>Lathosterol_HMDB0001170</t>
+  </si>
+  <si>
+    <t>Lyxose_HMDB0003402_1</t>
+  </si>
+  <si>
+    <t>4-Hydroxyproline_HMDB0000725</t>
+  </si>
+  <si>
+    <t>L-Tyrosine_HMDB0000158</t>
+  </si>
+  <si>
+    <t>Pelargonic acid_HMDB0000847</t>
+  </si>
+  <si>
+    <t>D-Xylulose_HMDB0001644</t>
+  </si>
+  <si>
+    <t>D-Ribulose_HMDB0000621</t>
+  </si>
+  <si>
+    <t>N-Acetyl-D-glucosamine_HMDB0000215</t>
+  </si>
+  <si>
+    <t>L-Glutamic acid_HMDB0000148</t>
+  </si>
+  <si>
+    <t>Fructose 1-phosphate_HMDB0001076</t>
+  </si>
+  <si>
+    <t>Pyroglutamic acid_HMDB0000267</t>
+  </si>
+  <si>
+    <t>Beta-Alanine_HMDB0000056</t>
+  </si>
+  <si>
+    <t>Hydroxypropionic acid_HMDB0000700</t>
+  </si>
+  <si>
+    <t>Adenosine monophosphate_HMDB0000045</t>
+  </si>
+  <si>
+    <t>Niacinamide_HMDB0001406</t>
+  </si>
+  <si>
+    <t>Glutaric acid_HMDB0000661</t>
+  </si>
+  <si>
+    <t>D-Fructose_HMDB0000660</t>
+  </si>
+  <si>
+    <t>Glycerol 3-phosphate_HMDB0000126</t>
+  </si>
+  <si>
+    <t>L-Sorbose_HMDB0001266</t>
+  </si>
+  <si>
+    <t>Succinic acid_HMDB0000254</t>
+  </si>
+  <si>
+    <t>Citric acid_HMDB0000094</t>
+  </si>
+  <si>
+    <t>Gluconolactone_HMDB0000150</t>
+  </si>
+  <si>
+    <t>3-Phosphoglyceric acid_HMDB0000807</t>
+  </si>
+  <si>
+    <t>Glucaric acid_HMDB0000663</t>
+  </si>
+  <si>
+    <t>Ornithine_HMDB0000214</t>
+  </si>
+  <si>
+    <t>3-Hydroxyglutaric acid_HMDB0000428</t>
+  </si>
+  <si>
+    <t>Gluconic acid_HMDB0000625</t>
+  </si>
+  <si>
+    <t>Palmitic acid_HMDB0000220</t>
+  </si>
+  <si>
+    <t>ITSD_Sorbitol</t>
+  </si>
+  <si>
+    <t>Glycine_HMDB0000123</t>
+  </si>
+  <si>
+    <t>Mannitol_HMDB0000765</t>
+  </si>
+  <si>
+    <t>Urea_HMDB0000294</t>
+  </si>
+  <si>
+    <t>3-Hydroxyisovaleric acid_HMDB0000754</t>
+  </si>
+  <si>
+    <t>Xanthylic acid_HMDB0001554</t>
+  </si>
+  <si>
+    <t>Caprylic acid_HMDB0000482</t>
+  </si>
+  <si>
+    <t>L-Proline_HMDB0000162</t>
+  </si>
+  <si>
+    <t>L-2-Hydroxyglutaric acid_HMDB0000694</t>
+  </si>
+  <si>
+    <t>2-Phosphoglyceric acid_HMDB0000362</t>
+  </si>
+  <si>
+    <t>Dodecanoic acid_HMDB0000638</t>
+  </si>
+  <si>
+    <t>Uracil_HMDB0000300</t>
+  </si>
+  <si>
+    <t>Glucose 6-phosphate_HMDB0001401</t>
+  </si>
+  <si>
+    <t>Suberic acid_HMDB0000893</t>
+  </si>
+  <si>
+    <t>Alpha-ketoisovaleric acid_HMDB0000019</t>
+  </si>
+  <si>
+    <t>Citramalic acid_HMDB0000426</t>
+  </si>
+  <si>
+    <t>Sebacic acid_HMDB0000792</t>
+  </si>
+  <si>
+    <t>Phenyllactic acid_HMDB0000779</t>
+  </si>
+  <si>
+    <t>Pimelic acid_HMDB0000857</t>
+  </si>
+  <si>
+    <t>Fumaric acid_HMDB0000134</t>
+  </si>
+  <si>
+    <t>Dihydrouracil_HMDB0000076</t>
+  </si>
+  <si>
+    <t>Xanthine_HMDB0000292</t>
+  </si>
+  <si>
+    <t>Inositol phosphate_HMDB0002985</t>
+  </si>
+  <si>
+    <t>Benzoic acid_HMDB0001870</t>
+  </si>
+  <si>
+    <t>Thymine_HMDB0000262</t>
+  </si>
+  <si>
+    <t>5-Aminopentanoic acid_HMDB0003355</t>
+  </si>
+  <si>
+    <t>N-Acetylmannosamine_HMDB0001129</t>
+  </si>
+  <si>
+    <t>L-Asparagine_HMDB0000168</t>
+  </si>
+  <si>
+    <t>Sucrose_HMDB0000258</t>
+  </si>
+  <si>
+    <t>Vanillic acid_HMDB0000484</t>
+  </si>
+  <si>
+    <t>Capric acid_HMDB0000511</t>
+  </si>
+  <si>
+    <t>Pyruvic acid_HMDB0000243</t>
+  </si>
+  <si>
+    <t>L-Lysine_HMDB0000182</t>
+  </si>
+  <si>
     <t>Mannose 6-phosphate_HMDB0001078</t>
   </si>
   <si>
-    <t>Triethanolamine_HMDB0032538</t>
-  </si>
-  <si>
-    <t>Lathosterol_HMDB0001170</t>
-  </si>
-  <si>
-    <t>Phenyllactic acid_HMDB0000779</t>
-  </si>
-  <si>
-    <t>Hypotaurine_HMDB0000965</t>
-  </si>
-  <si>
-    <t>L-Aspartic acid_HMDB0000191</t>
-  </si>
-  <si>
-    <t>Linoleic acid_HMDB0000673</t>
-  </si>
-  <si>
-    <t>L-Glutamic acid_HMDB0000148</t>
+    <t>Uric acid_HMDB0000289</t>
+  </si>
+  <si>
+    <t>Phenylacetic acid_HMDB0000209</t>
+  </si>
+  <si>
+    <t>Cholesterol_HMDB0000067</t>
+  </si>
+  <si>
+    <t>D-Xylose_HMDB0000098</t>
+  </si>
+  <si>
+    <t>Quinolinic acid_HMDB0000232</t>
+  </si>
+  <si>
+    <t>L-Arginine_HMDB0000517</t>
+  </si>
+  <si>
+    <t>1-Hexadecanol_HMDB0003424</t>
+  </si>
+  <si>
+    <t>Malic acid_HMDB0000744</t>
+  </si>
+  <si>
+    <t>L-Homoserine_HMDB0000719</t>
+  </si>
+  <si>
+    <t>Malonic acid_HMDB0000691</t>
+  </si>
+  <si>
+    <t>6-Phosphogluconic acid_HMDB0001316</t>
+  </si>
+  <si>
+    <t>D-Arabitol_HMDB0000568</t>
+  </si>
+  <si>
+    <t>2-Methyl-3-hydroxybutyric acid_HMDB0000354</t>
+  </si>
+  <si>
+    <t>Phenylpyruvic acid_HMDB0000205</t>
+  </si>
+  <si>
+    <t>MG(18:0e/0:0/0:0)_HMDB0011143</t>
+  </si>
+  <si>
+    <t>Ketoleucine_HMDB0000695</t>
+  </si>
+  <si>
+    <t>Lyxose_HMDB0003402_2</t>
+  </si>
+  <si>
+    <t>Oxalic acid_HMDB0002329</t>
   </si>
   <si>
     <t>2,3-Dihydroxybutanedioic acid_HMDB0059916</t>
   </si>
   <si>
-    <t>L-Arginine_HMDB0000517</t>
+    <t>3-Methyl-2-oxovaleric acid_HMDB0000491.1</t>
+  </si>
+  <si>
+    <t>Levoglucosan_HMDB0000640</t>
+  </si>
+  <si>
+    <t>Lactitol_HMDB0040937</t>
+  </si>
+  <si>
+    <t>Glyceric acid_HMDB0000139</t>
+  </si>
+  <si>
+    <t>Sorbitol_HMDB0000247</t>
+  </si>
+  <si>
+    <t>myo-Inositol_HMDB0000211</t>
+  </si>
+  <si>
+    <t>Threonic acid_HMDB0000943</t>
+  </si>
+  <si>
+    <t>cis-Aconitic acid_HMDB0000072</t>
+  </si>
+  <si>
+    <t>Glycolic acid_HMDB0000115</t>
+  </si>
+  <si>
+    <t>Hydroxylamine_HMDB0003338</t>
+  </si>
+  <si>
+    <t>Gamma-Aminobutyric acid_HMDB0000112</t>
+  </si>
+  <si>
+    <t>Stearic acid_HMDB0000827</t>
+  </si>
+  <si>
+    <t>Pyruvic acid_HMDB0000243.1</t>
+  </si>
+  <si>
+    <t>Methylsuccinic acid_HMDB0001844</t>
+  </si>
+  <si>
+    <t>Psicose_1</t>
+  </si>
+  <si>
+    <t>Stigmasterol_HMDB0000937</t>
+  </si>
+  <si>
+    <t>Trehalose_HMDB0000975</t>
+  </si>
+  <si>
+    <t>2-Hydroxy-3-methylbutyric acid_HMDB0000407</t>
+  </si>
+  <si>
+    <t>D-Maltose_HMDB0000163</t>
+  </si>
+  <si>
+    <t>Erythritol_HMDB0002994</t>
+  </si>
+  <si>
+    <t>Putrescine_HMDB0001414</t>
+  </si>
+  <si>
+    <t>L-Tryptophan_HMDB0000929</t>
+  </si>
+  <si>
+    <t>Azelaic acid_HMDB0000784</t>
+  </si>
+  <si>
+    <t>3-Sulfinoalanine_HMDB0000996</t>
+  </si>
+  <si>
+    <t>3-Methyl-2-oxovaleric acid_HMDB0000491</t>
+  </si>
+  <si>
+    <t>Cytosine_HMDB0000630</t>
+  </si>
+  <si>
+    <t>Maleic acid_HMDB0000176</t>
+  </si>
+  <si>
+    <t>Uridine_HMDB0000296</t>
+  </si>
+  <si>
+    <t>L-Glutamine_HMDB0000641</t>
+  </si>
+  <si>
+    <t>Isocitric acid_HMDB0000193</t>
+  </si>
+  <si>
+    <t>Acetylglycine_HMDB0000532</t>
+  </si>
+  <si>
+    <t>Nicotinic acid_HMDB0001488</t>
+  </si>
+  <si>
+    <t>Alpha-Hydroxyisobutyric acid_HMDB0000729</t>
+  </si>
+  <si>
+    <t>Acetoacetic acid_HMDB0000060</t>
+  </si>
+  <si>
+    <t>1,5-Anhydrosorbitol_HMDB0002712</t>
+  </si>
+  <si>
+    <t>L-Cysteine_HMDB0000574</t>
+  </si>
+  <si>
+    <t>Hydroxyphenyllactic acid_HMDB0000755</t>
+  </si>
+  <si>
+    <t>Octadecanol_HMDB0002350</t>
+  </si>
+  <si>
+    <t>Hypoxanthine_HMDB0000157</t>
+  </si>
+  <si>
+    <t>Oxoglutaric acid_HMDB0000208</t>
+  </si>
+  <si>
+    <t>Glutathione_HMDB0000125</t>
+  </si>
+  <si>
+    <t>Galacturonic acid_HMDB0002545</t>
   </si>
   <si>
     <t>Pantothenic acid_HMDB0000210</t>
   </si>
   <si>
-    <t>Ornithine_HMDB0000214.1</t>
-  </si>
-  <si>
-    <t>Glycerol_HMDB0000131</t>
-  </si>
-  <si>
-    <t>Thymine_HMDB0000262</t>
-  </si>
-  <si>
-    <t>Caprylic acid_HMDB0000482</t>
-  </si>
-  <si>
-    <t>myo-Inositol_HMDB0000211</t>
-  </si>
-  <si>
-    <t>L-Lysine_HMDB0000182.1</t>
-  </si>
-  <si>
-    <t>L-Serine_HMDB0000187</t>
-  </si>
-  <si>
-    <t>Caproic acid_HMDB0000535</t>
-  </si>
-  <si>
-    <t>N-Acetylglutamine_HMDB0006029</t>
-  </si>
-  <si>
-    <t>Elaidic acid_HMDB0000573</t>
-  </si>
-  <si>
-    <t>Tyramine_HMDB0000306</t>
-  </si>
-  <si>
-    <t>Oleic acid_HMDB0000207</t>
-  </si>
-  <si>
-    <t>Succinic acid_HMDB0000254</t>
-  </si>
-  <si>
-    <t>L-Sorbose_HMDB0001266</t>
-  </si>
-  <si>
-    <t>D-Mannose_HMDB0000169.1</t>
-  </si>
-  <si>
-    <t>N-Acetylserine_HMDB0002931</t>
-  </si>
-  <si>
-    <t>Acetylglycine_HMDB0000532</t>
-  </si>
-  <si>
-    <t>Erythritol_HMDB0002994</t>
-  </si>
-  <si>
-    <t>Pelargonic acid_HMDB0000847</t>
-  </si>
-  <si>
-    <t>L-Dihydroorotic acid_HMDB0003349</t>
-  </si>
-  <si>
-    <t>L-2-Hydroxyglutaric acid_HMDB0000694</t>
-  </si>
-  <si>
-    <t>Hydroxyphenyllactic acid_HMDB0000755</t>
-  </si>
-  <si>
-    <t>N-Acetyl-D-glucosamine_HMDB0000215</t>
-  </si>
-  <si>
-    <t>Ethanolamine_HMDB0000149</t>
-  </si>
-  <si>
-    <t>Malonic acid_HMDB0000691</t>
-  </si>
-  <si>
-    <t>Dopamine_HMDB0000073</t>
-  </si>
-  <si>
-    <t>1,5-Anhydrosorbitol_HMDB0002712</t>
-  </si>
-  <si>
-    <t>D-Glucose_HMDB0000122</t>
-  </si>
-  <si>
-    <t>L-Histidine_HMDB0000177</t>
-  </si>
-  <si>
-    <t>Uric acid_HMDB0000289</t>
-  </si>
-  <si>
-    <t>Ornithine_HMDB0000214</t>
-  </si>
-  <si>
-    <t>Glutathione_HMDB0000125</t>
-  </si>
-  <si>
-    <t>Pyruvic acid_HMDB0000243</t>
-  </si>
-  <si>
-    <t>Azelaic acid_HMDB0000784</t>
-  </si>
-  <si>
-    <t>L-Valine_HMDB0000883</t>
-  </si>
-  <si>
-    <t>Lyxose_HMDB0003402_2</t>
-  </si>
-  <si>
-    <t>Ketoleucine_HMDB0000695</t>
-  </si>
-  <si>
-    <t>D-Ribulose_HMDB0000621</t>
-  </si>
-  <si>
-    <t>Glycolic acid_HMDB0000115</t>
-  </si>
-  <si>
-    <t>Dimethylglycine_HMDB0000092</t>
-  </si>
-  <si>
-    <t>D-Ribose 5-phosphate_HMDB0001548.1</t>
-  </si>
-  <si>
-    <t>Niacinamide_HMDB0001406</t>
-  </si>
-  <si>
-    <t>2-Hydroxy-3-methylbutyric acid_HMDB0000407</t>
-  </si>
-  <si>
-    <t>Cholesterol_HMDB0000067</t>
-  </si>
-  <si>
-    <t>Dodecanoic acid_HMDB0000638</t>
-  </si>
-  <si>
-    <t>L-Methionine_HMDB0000696</t>
-  </si>
-  <si>
-    <t>1-Hexadecanol_HMDB0003424</t>
-  </si>
-  <si>
-    <t>Uracil_HMDB0000300</t>
-  </si>
-  <si>
-    <t>D-Ribose_HMDB0000283</t>
-  </si>
-  <si>
-    <t>L-Asparagine_HMDB0000168</t>
-  </si>
-  <si>
-    <t>N-Acetylmannosamine_HMDB0001129</t>
-  </si>
-  <si>
-    <t>2-Aminobenzoic acid_HMDB0001123</t>
-  </si>
-  <si>
-    <t>L-Tryptophan_HMDB0000929</t>
-  </si>
-  <si>
-    <t>4-Hydroxyproline_HMDB0000725</t>
-  </si>
-  <si>
-    <t>3-Methyl-2-oxovaleric acid_HMDB0000491</t>
-  </si>
-  <si>
-    <t>Acetoacetic acid_HMDB0000060</t>
-  </si>
-  <si>
-    <t>Xanthylic acid_HMDB0001554</t>
-  </si>
-  <si>
-    <t>Malic acid_HMDB0000744</t>
+    <t>D-Threitol_HMDB0004136</t>
+  </si>
+  <si>
+    <t>(S)-3-Hydroxyisobutyric acid_HMDB0000023</t>
+  </si>
+  <si>
+    <t>Ribitol_HMDB0000508</t>
+  </si>
+  <si>
+    <t>2-Hydroxybutyric acid_HMDB0000008</t>
   </si>
   <si>
     <t>Mesaconic acid_HMDB0000749</t>
   </si>
   <si>
-    <t>Sebacic acid_HMDB0000792</t>
-  </si>
-  <si>
-    <t>Putrescine_HMDB0001414</t>
-  </si>
-  <si>
-    <t>Gluconolactone_HMDB0000150</t>
-  </si>
-  <si>
-    <t>Phenylacetic acid_HMDB0000209</t>
-  </si>
-  <si>
-    <t>Hypoxanthine_HMDB0000157</t>
-  </si>
-  <si>
-    <t>D-Fructose_HMDB0000660</t>
-  </si>
-  <si>
-    <t>O-Phosphoethanolamine_HMDB0000224</t>
-  </si>
-  <si>
-    <t>Palmitic acid_HMDB0000220</t>
-  </si>
-  <si>
-    <t>Phosphoenolpyruvic acid_HMDB0000263</t>
-  </si>
-  <si>
-    <t>Creatinine_HMDB0000562</t>
-  </si>
-  <si>
-    <t>Xanthine_HMDB0000292</t>
-  </si>
-  <si>
-    <t>Gluconic acid_HMDB0000625</t>
-  </si>
-  <si>
-    <t>Sorbitol_HMDB0000247</t>
-  </si>
-  <si>
-    <t>Alpha-ketoisovaleric acid_HMDB0000019</t>
-  </si>
-  <si>
-    <t>L-Tyrosine_HMDB0000158</t>
-  </si>
-  <si>
-    <t>ITSD_Valine</t>
-  </si>
-  <si>
-    <t>3-Aminoisobutanoic acid_HMDB0003911</t>
-  </si>
-  <si>
-    <t>Lactitol_HMDB0040937</t>
-  </si>
-  <si>
-    <t>Benzoic acid_HMDB0001870</t>
-  </si>
-  <si>
-    <t>Maleic acid_HMDB0000176</t>
-  </si>
-  <si>
-    <t>L-Cysteine_HMDB0000574</t>
-  </si>
-  <si>
-    <t>L-Glutamine_HMDB0000641</t>
-  </si>
-  <si>
-    <t>L-Phenylalanine_HMDB0000159</t>
-  </si>
-  <si>
-    <t>Fumaric acid_HMDB0000134</t>
-  </si>
-  <si>
-    <t>Arachidonic acid_HMDB0001043</t>
-  </si>
-  <si>
-    <t>3-Sulfinoalanine_HMDB0000996</t>
-  </si>
-  <si>
-    <t>L-Alanine_HMDB0000161</t>
-  </si>
-  <si>
-    <t>Capric acid_HMDB0000511</t>
-  </si>
-  <si>
-    <t>Psicose_1</t>
-  </si>
-  <si>
-    <t>Pimelic acid_HMDB0000857</t>
-  </si>
-  <si>
-    <t>Phenylpyruvic acid_HMDB0000205</t>
-  </si>
-  <si>
-    <t>Glyceric acid_HMDB0000139</t>
-  </si>
-  <si>
-    <t>D-Threitol_HMDB0004136</t>
-  </si>
-  <si>
-    <t>Palmitoleic acid_HMDB0003229</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconic acid_HMDB0001316</t>
-  </si>
-  <si>
-    <t>Urea_HMDB0000294</t>
-  </si>
-  <si>
-    <t>Glutaric acid_HMDB0000661</t>
-  </si>
-  <si>
-    <t>4-Hydroxybenzoic acid_HMDB0000500</t>
-  </si>
-  <si>
-    <t>Glucaric acid_HMDB0000663</t>
-  </si>
-  <si>
-    <t>D-Arabinose_HMDB0029942</t>
-  </si>
-  <si>
     <t>D-Sedoheptulose 7-phosphate_HMDB0001068</t>
   </si>
   <si>
-    <t>Glycerol 3-phosphate_HMDB0000126</t>
-  </si>
-  <si>
-    <t>L-Homoserine_HMDB0000719</t>
-  </si>
-  <si>
-    <t>Glyoxylic acid_HMDB0000119</t>
-  </si>
-  <si>
-    <t>Suberic acid_HMDB0000893</t>
-  </si>
-  <si>
-    <t>Fructose 1-phosphate_HMDB0001076</t>
-  </si>
-  <si>
-    <t>D-Ribulose 5-phosphate_HMDB0000618</t>
-  </si>
-  <si>
-    <t>L-Proline_HMDB0000162</t>
-  </si>
-  <si>
-    <t>Adenosine monophosphate_HMDB0000045</t>
-  </si>
-  <si>
-    <t>Lyxose_HMDB0003402_1</t>
-  </si>
-  <si>
-    <t>cis-Aconitic acid_HMDB0000072</t>
-  </si>
-  <si>
-    <t>Citric acid_HMDB0000094</t>
-  </si>
-  <si>
-    <t>D-Glucose_HMDB0000122.1</t>
-  </si>
-  <si>
-    <t>Citramalic acid_HMDB0000426</t>
-  </si>
-  <si>
-    <t>Beta-Alanine_HMDB0000056.1</t>
-  </si>
-  <si>
-    <t>3-Methyl-2-oxovaleric acid_HMDB0000491.1</t>
-  </si>
-  <si>
-    <t>Glucose 6-phosphate_HMDB0001401</t>
-  </si>
-  <si>
-    <t>Levoglucosan_HMDB0000640</t>
-  </si>
-  <si>
-    <t>Beta-Alanine_HMDB0000056</t>
-  </si>
-  <si>
-    <t>Oxoglutaric acid_HMDB0000208</t>
-  </si>
-  <si>
-    <t>Sucrose_HMDB0000258</t>
-  </si>
-  <si>
-    <t>3-Hydroxyisovaleric acid_HMDB0000754</t>
-  </si>
-  <si>
-    <t>D-Xylose_HMDB0000098</t>
-  </si>
-  <si>
-    <t>Glycine_HMDB0000123</t>
-  </si>
-  <si>
-    <t>5-Aminopentanoic acid_HMDB0003355</t>
-  </si>
-  <si>
-    <t>2-Methyl-3-hydroxybutyric acid_HMDB0000354</t>
-  </si>
-  <si>
-    <t>L-Lysine_HMDB0000182</t>
-  </si>
-  <si>
-    <t>D-Maltose_HMDB0000163</t>
-  </si>
-  <si>
-    <t>Methylsuccinic acid_HMDB0001844</t>
-  </si>
-  <si>
-    <t>Mannitol_HMDB0000765</t>
-  </si>
-  <si>
-    <t>D-Ribose 5-phosphate_HMDB0001548</t>
-  </si>
-  <si>
-    <t>Gamma-Aminobutyric acid_HMDB0000112</t>
-  </si>
-  <si>
-    <t>Ribitol_HMDB0000508</t>
-  </si>
-  <si>
-    <t>Alpha-Hydroxyisobutyric acid_HMDB0000729</t>
-  </si>
-  <si>
-    <t>Oxalic acid_HMDB0002329</t>
-  </si>
-  <si>
-    <t>Cytosine_HMDB0000630</t>
-  </si>
-  <si>
-    <t>alpha-Glucose 1,6-bisphosphate_HMDB0003514</t>
-  </si>
-  <si>
-    <t>Hydroxypropionic acid_HMDB0000700</t>
-  </si>
-  <si>
-    <t>Glycine_HMDB0000123.1</t>
-  </si>
-  <si>
-    <t>D-Tagatose_HMDB0003418</t>
-  </si>
-  <si>
-    <t>Uridine_HMDB0000296</t>
-  </si>
-  <si>
-    <t>MG(18:0e/0:0/0:0)_HMDB0011143</t>
-  </si>
-  <si>
-    <t>(S)-3-Hydroxyisobutyric acid_HMDB0000023</t>
-  </si>
-  <si>
-    <t>Trehalose_HMDB0000975</t>
-  </si>
-  <si>
-    <t>Dihydrouracil_HMDB0000076</t>
-  </si>
-  <si>
-    <t>Quinolinic acid_HMDB0000232</t>
-  </si>
-  <si>
-    <t>Stearic acid_HMDB0000827</t>
-  </si>
-  <si>
-    <t>2-Phosphoglyceric acid_HMDB0000362</t>
-  </si>
-  <si>
-    <t>D-Xylulose_HMDB0001644</t>
-  </si>
-  <si>
-    <t>D-Alpha-aminobutyric acid_HMDB0000650</t>
-  </si>
-  <si>
-    <t>Pyroglutamic acid_HMDB0000267</t>
-  </si>
-  <si>
-    <t>Nicotinic acid_HMDB0001488</t>
-  </si>
-  <si>
-    <t>Inositol phosphate_HMDB0002985</t>
-  </si>
-  <si>
-    <t>Vanillic acid_HMDB0000484</t>
-  </si>
-  <si>
-    <t>3-Phosphoglyceric acid_HMDB0000807</t>
-  </si>
-  <si>
-    <t>L-Leucine_HMDB0000687</t>
-  </si>
-  <si>
-    <t>L-Isoleucine_HMDB0000172</t>
-  </si>
-  <si>
-    <t>L-Lactic acid_HMDB0000190</t>
-  </si>
-  <si>
-    <t>2-Hydroxybutyric acid_HMDB0000008</t>
-  </si>
-  <si>
-    <t>Myristic acid_HMDB0000806</t>
-  </si>
-  <si>
-    <t>Threonic acid_HMDB0000943</t>
-  </si>
-  <si>
-    <t>D-Mannose_HMDB0000169</t>
-  </si>
-  <si>
-    <t>Heptadecanoic acid_HMDB0002259</t>
-  </si>
-  <si>
-    <t>Isocitric acid_HMDB0000193</t>
-  </si>
-  <si>
-    <t>3-Hydroxyglutaric acid_HMDB0000428</t>
-  </si>
-  <si>
-    <t>Octadecanol_HMDB0002350</t>
-  </si>
-  <si>
-    <t>ITSD_Sorbitol</t>
-  </si>
-  <si>
-    <t>Galacturonic acid_HMDB0002545</t>
-  </si>
-  <si>
-    <t>Adipic acid_HMDB0000448</t>
-  </si>
-  <si>
     <t>3-Hydroxybutyric acid_HMDB0000357</t>
-  </si>
-  <si>
-    <t>D-Arabitol_HMDB0000568</t>
-  </si>
-  <si>
-    <t>Hydroxylamine_HMDB0003338</t>
-  </si>
-  <si>
-    <t>L-Threonine_HMDB0000167</t>
-  </si>
-  <si>
-    <t>Stigmasterol_HMDB0000937</t>
-  </si>
-  <si>
-    <t>Pyruvic acid_HMDB0000243.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -975,251 +635,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1227,63 +645,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1566,27 +932,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>223.569289861357</v>
+        <v>223.5692898613565</v>
       </c>
       <c r="D2">
-        <v>3.89449975579201e-10</v>
+        <v>3.894499755792006E-10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1619,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>190.517510142531</v>
+        <v>190.5175101425306</v>
       </c>
       <c r="D3">
-        <v>9.23393981984961e-10</v>
+        <v>9.233939819849606E-10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1633,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>100.416068026232</v>
+        <v>100.4160680262325</v>
       </c>
       <c r="D4">
-        <v>2.83077669631097e-8</v>
+        <v>2.830776696310975E-08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1647,10 +1005,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>97.1835559148647</v>
+        <v>97.18355591486473</v>
       </c>
       <c r="D5">
-        <v>3.36551600559516e-8</v>
+        <v>3.365516005595157E-08</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1664,7 +1022,7 @@
         <v>94.7270471204946</v>
       </c>
       <c r="D6">
-        <v>3.85284681227815e-8</v>
+        <v>3.852846812278153E-08</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1675,10 +1033,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>83.4814734503874</v>
+        <v>83.48147345038744</v>
       </c>
       <c r="D7">
-        <v>7.49493500453371e-8</v>
+        <v>7.49493500453371E-08</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1689,10 +1047,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>78.3840076748131</v>
+        <v>78.38400767481315</v>
       </c>
       <c r="D8">
-        <v>1.04288611065065e-7</v>
+        <v>1.04288611065065E-07</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1706,7 +1064,7 @@
         <v>74.0545581692401</v>
       </c>
       <c r="D9">
-        <v>1.40360403758578e-7</v>
+        <v>1.403604037585777E-07</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1717,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>69.0739350025256</v>
+        <v>69.07393500252564</v>
       </c>
       <c r="D10">
-        <v>2.01753136013475e-7</v>
+        <v>2.017531360134748E-07</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1731,10 +1089,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>68.6519945665087</v>
+        <v>68.65199456650868</v>
       </c>
       <c r="D11">
-        <v>2.08285779803364e-7</v>
+        <v>2.082857798033642E-07</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1745,10 +1103,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>53.4800230644926</v>
+        <v>53.48002306449263</v>
       </c>
       <c r="D12">
-        <v>7.55934957248415e-7</v>
+        <v>7.559349572484153E-07</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1759,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>50.3446611905958</v>
+        <v>50.34466119059582</v>
       </c>
       <c r="D13">
-        <v>1.02930304129881e-6</v>
+        <v>1.029303041298809E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1773,10 +1131,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>46.3625052290407</v>
+        <v>46.36250522904068</v>
       </c>
       <c r="D14">
-        <v>1.56467788707751e-6</v>
+        <v>1.564677887077513E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1787,10 +1145,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>40.1556571327845</v>
+        <v>40.15565713278452</v>
       </c>
       <c r="D15">
-        <v>3.2268855607079e-6</v>
+        <v>3.226885560707899E-06</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1801,10 +1159,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>37.7733267189116</v>
+        <v>37.77332671891163</v>
       </c>
       <c r="D16">
-        <v>4.37870656786059e-6</v>
+        <v>4.378706567860585E-06</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1815,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>36.1817706984963</v>
+        <v>36.18177069849634</v>
       </c>
       <c r="D17">
-        <v>5.42235781602506e-6</v>
+        <v>5.422357816025058E-06</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1829,10 +1187,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>30.9218092056761</v>
+        <v>30.92180920567614</v>
       </c>
       <c r="D18">
-        <v>1.17359402612301e-5</v>
+        <v>1.173594026123013E-05</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1843,10 +1201,10 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>29.4778577166465</v>
+        <v>29.47785771664647</v>
       </c>
       <c r="D19">
-        <v>1.48060922444748e-5</v>
+        <v>1.48060922444748E-05</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1857,10 +1215,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>27.8812714856209</v>
+        <v>27.88127148562085</v>
       </c>
       <c r="D20">
-        <v>1.93742727277745e-5</v>
+        <v>1.937427272777447E-05</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1871,10 +1229,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>26.7540542127019</v>
+        <v>26.75405421270192</v>
       </c>
       <c r="D21">
-        <v>2.36185297309539e-5</v>
+        <v>2.361852973095385E-05</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1885,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>26.0290963320804</v>
+        <v>26.02909633208036</v>
       </c>
       <c r="D22">
-        <v>2.69315659907015e-5</v>
+        <v>2.693156599070151E-05</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1899,10 +1257,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>25.6481466092089</v>
+        <v>25.64814660920892</v>
       </c>
       <c r="D23">
-        <v>2.88916324529285e-5</v>
+        <v>2.889163245292853E-05</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1913,10 +1271,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>25.3841586607342</v>
+        <v>25.38415866073416</v>
       </c>
       <c r="D24">
-        <v>3.03490876559837e-5</v>
+        <v>3.034908765598372E-05</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1927,10 +1285,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>25.1436717763613</v>
+        <v>25.14367177636129</v>
       </c>
       <c r="D25">
-        <v>3.17529508469299e-5</v>
+        <v>3.17529508469299E-05</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1941,10 +1299,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>24.9176027452135</v>
+        <v>24.91760274521349</v>
       </c>
       <c r="D26">
-        <v>3.31431163510594e-5</v>
+        <v>3.314311635105943E-05</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1955,10 +1313,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>24.6002089723476</v>
+        <v>24.60020897234756</v>
       </c>
       <c r="D27">
-        <v>3.52181765617383e-5</v>
+        <v>3.521817656173831E-05</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1969,10 +1327,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>23.4280610433981</v>
+        <v>23.42806104339815</v>
       </c>
       <c r="D28">
-        <v>4.43368855489812e-5</v>
+        <v>4.433688554898121E-05</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1983,10 +1341,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>23.0752677573307</v>
+        <v>23.07526775733071</v>
       </c>
       <c r="D29">
-        <v>4.76101561653675e-5</v>
+        <v>4.761015616536748E-05</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1997,10 +1355,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>22.1347844783986</v>
+        <v>22.13478447839857</v>
       </c>
       <c r="D30">
-        <v>5.78327940519078e-5</v>
+        <v>5.783279405190781E-05</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2011,10 +1369,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>21.7558113707076</v>
+        <v>21.75581137070763</v>
       </c>
       <c r="D31">
-        <v>6.26721848160594e-5</v>
+        <v>6.267218481605936E-05</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2028,7 +1386,7 @@
         <v>21.5217190776684</v>
       </c>
       <c r="D32">
-        <v>6.59007104913021e-5</v>
+        <v>6.590071049130208E-05</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2039,10 +1397,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>20.9991189667687</v>
+        <v>20.99911896676874</v>
       </c>
       <c r="D33">
-        <v>7.3845015542422e-5</v>
+        <v>7.384501554242201E-05</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2053,10 +1411,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>20.3561557053774</v>
+        <v>20.35615570537743</v>
       </c>
       <c r="D34">
-        <v>8.52259310110955e-5</v>
+        <v>8.522593101109546E-05</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2067,10 +1425,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>20.2165429130709</v>
+        <v>20.21654291307092</v>
       </c>
       <c r="D35">
-        <v>8.79640891171853e-5</v>
+        <v>8.796408911718531E-05</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2081,10 +1439,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>19.9059855893564</v>
+        <v>19.90598558935644</v>
       </c>
       <c r="D36">
-        <v>9.44365932664498e-5</v>
+        <v>9.443659326644979E-05</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2095,10 +1453,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>19.8290586856123</v>
+        <v>19.82905868561228</v>
       </c>
       <c r="D37">
-        <v>9.61258213206923e-5</v>
+        <v>9.61258213206923E-05</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2109,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>19.470087664583</v>
+        <v>19.47008766458303</v>
       </c>
       <c r="D38">
-        <v>0.000104496353428237</v>
+        <v>0.0001044963534282366</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2123,10 +1481,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>19.419620921144</v>
+        <v>19.41962092114402</v>
       </c>
       <c r="D39">
-        <v>0.000105740970282354</v>
+        <v>0.0001057409702823542</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2137,10 +1495,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>19.2457455325581</v>
+        <v>19.24574553255806</v>
       </c>
       <c r="D40">
-        <v>0.00011016530376134</v>
+        <v>0.0001101653037613398</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2154,7 +1512,7 @@
         <v>19.0115984412958</v>
       </c>
       <c r="D41">
-        <v>0.000116473755809909</v>
+        <v>0.0001164737558099086</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2165,10 +1523,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>18.2313127790191</v>
+        <v>18.23131277901914</v>
       </c>
       <c r="D42">
-        <v>0.000140808005012251</v>
+        <v>0.0001408080050122512</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2179,10 +1537,10 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>17.0237356089371</v>
+        <v>17.02373560893713</v>
       </c>
       <c r="D43">
-        <v>0.000191431450507931</v>
+        <v>0.0001914314505079305</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2196,7 +1554,7 @@
         <v>16.9987829962333</v>
       </c>
       <c r="D44">
-        <v>0.000192685631814783</v>
+        <v>0.0001926856318147835</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2207,10 +1565,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>16.4231593530459</v>
+        <v>16.42315935304587</v>
       </c>
       <c r="D45">
-        <v>0.000224503144007124</v>
+        <v>0.0002245031440071238</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2221,7 +1579,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>16.1254605486737</v>
+        <v>16.12546054867373</v>
       </c>
       <c r="D46">
         <v>0.000243379441526569</v>
@@ -2235,10 +1593,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>16.0381546385689</v>
+        <v>16.03815463856894</v>
       </c>
       <c r="D47">
-        <v>0.00024926674638815</v>
+        <v>0.0002492667463881505</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2249,10 +1607,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>15.5560227047258</v>
+        <v>15.55602270472582</v>
       </c>
       <c r="D48">
-        <v>0.000284978685188905</v>
+        <v>0.0002849786851889047</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2263,10 +1621,10 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>15.1078519873173</v>
+        <v>15.10785198731725</v>
       </c>
       <c r="D49">
-        <v>0.000323712164137268</v>
+        <v>0.0003237121641372683</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2277,10 +1635,10 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>14.7800194680461</v>
+        <v>14.78001946804612</v>
       </c>
       <c r="D50">
-        <v>0.000356015582735651</v>
+        <v>0.0003560155827356508</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2294,7 +1652,7 @@
         <v>14.0604447196327</v>
       </c>
       <c r="D51">
-        <v>0.000441282019792314</v>
+        <v>0.0004412820197923138</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2305,7 +1663,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>13.4332581916747</v>
+        <v>13.43325819167474</v>
       </c>
       <c r="D52">
         <v>0.000535865072312159</v>
@@ -2319,10 +1677,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>11.8355241507827</v>
+        <v>13.05456904616269</v>
       </c>
       <c r="D53">
-        <v>0.000908502705614876</v>
+        <v>0.0006045764207215351</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2333,10 +1691,10 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>11.5642863895704</v>
+        <v>11.83552415078266</v>
       </c>
       <c r="D54">
-        <v>0.000998885857999336</v>
+        <v>0.0009085027056148765</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2347,10 +1705,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>11.5156807164384</v>
+        <v>11.56428638957039</v>
       </c>
       <c r="D55">
-        <v>0.00101618349924129</v>
+        <v>0.0009988858579993358</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2361,10 +1719,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>11.4708970512499</v>
+        <v>11.51568071643841</v>
       </c>
       <c r="D56">
-        <v>0.00103243476802079</v>
+        <v>0.001016183499241294</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2375,10 +1733,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>11.0026919063518</v>
+        <v>11.47089705124989</v>
       </c>
       <c r="D57">
-        <v>0.00122210428632406</v>
+        <v>0.001032434768020787</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2389,10 +1747,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>10.7766117194207</v>
+        <v>11.00269190635178</v>
       </c>
       <c r="D58">
-        <v>0.00132828214571828</v>
+        <v>0.001222104286324059</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2403,10 +1761,10 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>10.5359907950315</v>
+        <v>10.77661171942074</v>
       </c>
       <c r="D59">
-        <v>0.00145347074966348</v>
+        <v>0.001328282145718283</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2417,10 +1775,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>10.4696020199165</v>
+        <v>10.53599079503154</v>
       </c>
       <c r="D60">
-        <v>0.0014904293353069</v>
+        <v>0.001453470749663479</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2431,10 +1789,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>9.77107703969876</v>
+        <v>10.46960201991648</v>
       </c>
       <c r="D61">
-        <v>0.00195499812206677</v>
+        <v>0.001490429335306904</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2445,10 +1803,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>9.57230378057667</v>
+        <v>9.771077039698762</v>
       </c>
       <c r="D62">
-        <v>0.00211717941963575</v>
+        <v>0.001954998122066768</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2459,10 +1817,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>9.56971251983571</v>
+        <v>9.572303780576666</v>
       </c>
       <c r="D63">
-        <v>0.00211939624604996</v>
+        <v>0.002117179419635748</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2473,10 +1831,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>9.43311724095587</v>
+        <v>9.569712519835706</v>
       </c>
       <c r="D64">
-        <v>0.00224022913263992</v>
+        <v>0.002119396246049961</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2487,10 +1845,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>8.50062551057983</v>
+        <v>9.433117240955866</v>
       </c>
       <c r="D65">
-        <v>0.00332219460475673</v>
+        <v>0.002240229132639919</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2501,10 +1859,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>8.43089688696165</v>
+        <v>8.500625510579827</v>
       </c>
       <c r="D66">
-        <v>0.00342548522862635</v>
+        <v>0.003322194604756733</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2515,10 +1873,10 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>7.9896065019749</v>
+        <v>8.43089688696165</v>
       </c>
       <c r="D67">
-        <v>0.00417457324717917</v>
+        <v>0.003425485228626345</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2529,10 +1887,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>7.87767673453722</v>
+        <v>7.989606501974902</v>
       </c>
       <c r="D68">
-        <v>0.00439430611814167</v>
+        <v>0.004174573247179166</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2543,10 +1901,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>7.82859564964156</v>
+        <v>7.877676734537222</v>
       </c>
       <c r="D69">
-        <v>0.00449494339847228</v>
+        <v>0.004394306118141675</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2557,10 +1915,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>7.37586725614972</v>
+        <v>7.828595649641556</v>
       </c>
       <c r="D70">
-        <v>0.00556369853426965</v>
+        <v>0.004494943398472277</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2571,10 +1929,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>7.17085729354278</v>
+        <v>7.37586725614972</v>
       </c>
       <c r="D71">
-        <v>0.00614476028723871</v>
+        <v>0.00556369853426965</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2585,10 +1943,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>7.02223538726234</v>
+        <v>7.170857293542782</v>
       </c>
       <c r="D72">
-        <v>0.00661098045852161</v>
+        <v>0.00614476028723871</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2599,10 +1957,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>6.88547794776456</v>
+        <v>7.022235387262338</v>
       </c>
       <c r="D73">
-        <v>0.00707721050557074</v>
+        <v>0.006610980458521609</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2613,10 +1971,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>6.8204943292733</v>
+        <v>6.885477947764561</v>
       </c>
       <c r="D74">
-        <v>0.0073122757771732</v>
+        <v>0.007077210505570742</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2627,10 +1985,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>6.67211677570096</v>
+        <v>6.820494329273298</v>
       </c>
       <c r="D75">
-        <v>0.00788436763309331</v>
+        <v>0.007312275777173196</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2641,10 +1999,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>6.24418842787636</v>
+        <v>6.672116775700961</v>
       </c>
       <c r="D76">
-        <v>0.00985485406912045</v>
+        <v>0.00788436763309331</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2655,10 +2013,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>6.2323267530123</v>
+        <v>6.244188427876357</v>
       </c>
       <c r="D77">
-        <v>0.00991724828922985</v>
+        <v>0.009854854069120445</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2669,10 +2027,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>6.15972489777566</v>
+        <v>6.232326753012297</v>
       </c>
       <c r="D78">
-        <v>0.0103094440562349</v>
+        <v>0.009917248289229852</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2683,10 +2041,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>5.86559447656068</v>
+        <v>6.159724897775662</v>
       </c>
       <c r="D79">
-        <v>0.0120972384633134</v>
+        <v>0.01030944405623495</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2697,10 +2055,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>5.78757880198751</v>
+        <v>5.865594476560684</v>
       </c>
       <c r="D80">
-        <v>0.0126311395845493</v>
+        <v>0.01209723846331336</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2711,10 +2069,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>5.70746603113902</v>
+        <v>5.78757880198751</v>
       </c>
       <c r="D81">
-        <v>0.0132084944210221</v>
+        <v>0.01263113958454925</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2725,10 +2083,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>5.55506688195448</v>
+        <v>5.707466031139022</v>
       </c>
       <c r="D82">
-        <v>0.0143948559328812</v>
+        <v>0.01320849442102207</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2739,10 +2097,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>5.52147603911151</v>
+        <v>5.555066881954483</v>
       </c>
       <c r="D83">
-        <v>0.0146729527934983</v>
+        <v>0.01439485593288118</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2753,10 +2111,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>5.46439728749581</v>
+        <v>5.521476039111512</v>
       </c>
       <c r="D84">
-        <v>0.015160138361118</v>
+        <v>0.01467295279349829</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2767,10 +2125,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>5.45569727117226</v>
+        <v>5.464397287495812</v>
       </c>
       <c r="D85">
-        <v>0.015236055803865</v>
+        <v>0.01516013836111797</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2781,10 +2139,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>5.43735086153197</v>
+        <v>5.45569727117226</v>
       </c>
       <c r="D86">
-        <v>0.0153976197432604</v>
+        <v>0.01523605580386497</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2795,10 +2153,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>5.32451730700894</v>
+        <v>5.437350861531968</v>
       </c>
       <c r="D87">
-        <v>0.0164367721721324</v>
+        <v>0.01539761974326041</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2809,10 +2167,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>5.30874889702665</v>
+        <v>5.324517307008936</v>
       </c>
       <c r="D88">
-        <v>0.0165884706011633</v>
+        <v>0.01643677217213239</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2823,10 +2181,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>5.19922403404568</v>
+        <v>5.308748897026651</v>
       </c>
       <c r="D89">
-        <v>0.0176887998279916</v>
+        <v>0.01658847060116328</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2837,10 +2195,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>5.15485330756544</v>
+        <v>5.19922403404568</v>
       </c>
       <c r="D90">
-        <v>0.0181588462837805</v>
+        <v>0.01768879982799161</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2851,10 +2209,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>4.93927553023311</v>
+        <v>5.154853307565441</v>
       </c>
       <c r="D91">
-        <v>0.0206626260271056</v>
+        <v>0.01815884628378049</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2865,10 +2223,10 @@
         <v>93</v>
       </c>
       <c r="C92">
-        <v>4.92337396123884</v>
+        <v>4.939275530233109</v>
       </c>
       <c r="D92">
-        <v>0.0208628744252971</v>
+        <v>0.02066262602710558</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2879,10 +2237,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>4.81446874000829</v>
+        <v>4.923373961238837</v>
       </c>
       <c r="D93">
-        <v>0.0222973104174181</v>
+        <v>0.02086287442529711</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2893,10 +2251,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>4.69013762096608</v>
+        <v>4.814468740008294</v>
       </c>
       <c r="D94">
-        <v>0.0240789171998884</v>
+        <v>0.02229731041741811</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2907,10 +2265,10 @@
         <v>96</v>
       </c>
       <c r="C95">
-        <v>4.52989481616259</v>
+        <v>4.690137620966079</v>
       </c>
       <c r="D95">
-        <v>0.0266277910342609</v>
+        <v>0.02407891719988843</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2921,10 +2279,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>4.26914196068245</v>
+        <v>4.52989481616259</v>
       </c>
       <c r="D96">
-        <v>0.0314860244353811</v>
+        <v>0.02662779103426095</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2935,10 +2293,10 @@
         <v>98</v>
       </c>
       <c r="C97">
-        <v>3.88137137072686</v>
+        <v>4.26914196068245</v>
       </c>
       <c r="D97">
-        <v>0.0407763570286519</v>
+        <v>0.03148602443538107</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2949,10 +2307,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>3.15677216908264</v>
+        <v>3.881371370726863</v>
       </c>
       <c r="D98">
-        <v>0.0683131065556379</v>
+        <v>0.04077635702865188</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2963,10 +2321,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>3.122302626643</v>
+        <v>3.15677216908264</v>
       </c>
       <c r="D99">
-        <v>0.0700912862459639</v>
+        <v>0.06831310655563794</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2977,10 +2335,10 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>3.10987564133261</v>
+        <v>3.122302626643005</v>
       </c>
       <c r="D100">
-        <v>0.0707455509796113</v>
+        <v>0.07009128624596392</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2991,10 +2349,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>3.06198407033681</v>
+        <v>3.109875641332608</v>
       </c>
       <c r="D101">
-        <v>0.0733344558980473</v>
+        <v>0.07074555097961133</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3005,10 +2363,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>3.00397686960134</v>
+        <v>3.061984070336814</v>
       </c>
       <c r="D102">
-        <v>0.0766194167703717</v>
+        <v>0.07333445589804725</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3019,10 +2377,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>2.80350270313683</v>
+        <v>3.003976869601339</v>
       </c>
       <c r="D103">
-        <v>0.0893682429408483</v>
+        <v>0.07661941677037175</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3033,10 +2391,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>2.54158858862813</v>
+        <v>2.803502703136826</v>
       </c>
       <c r="D104">
-        <v>0.109925789670721</v>
+        <v>0.08936824294084827</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3047,10 +2405,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>2.52659965182448</v>
+        <v>2.541588588628132</v>
       </c>
       <c r="D105">
-        <v>0.111259295644297</v>
+        <v>0.109925789670721</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3061,10 +2419,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>2.52291059470665</v>
+        <v>2.526599651824484</v>
       </c>
       <c r="D106">
-        <v>0.111590362853609</v>
+        <v>0.1112592956442974</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3075,10 +2433,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>2.52066999387035</v>
+        <v>2.522910594706651</v>
       </c>
       <c r="D107">
-        <v>0.111791997936968</v>
+        <v>0.1115903628536086</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3089,10 +2447,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>2.50763812216411</v>
+        <v>2.52066999387035</v>
       </c>
       <c r="D108">
-        <v>0.112973151502717</v>
+        <v>0.1117919979369676</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3103,10 +2461,10 @@
         <v>110</v>
       </c>
       <c r="C109">
-        <v>2.47027107495226</v>
+        <v>2.507638122164113</v>
       </c>
       <c r="D109">
-        <v>0.116440859048546</v>
+        <v>0.1129731515027171</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3117,10 +2475,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>2.41907229327984</v>
+        <v>2.470271074952256</v>
       </c>
       <c r="D110">
-        <v>0.121394062486238</v>
+        <v>0.116440859048546</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3131,10 +2489,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>2.35860693783067</v>
+        <v>2.419072293279839</v>
       </c>
       <c r="D111">
-        <v>0.127560533173369</v>
+        <v>0.1213940624862383</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3145,10 +2503,10 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>2.2916663921907</v>
+        <v>2.358606937830675</v>
       </c>
       <c r="D112">
-        <v>0.1348135098877</v>
+        <v>0.1275605331733688</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3159,10 +2517,10 @@
         <v>114</v>
       </c>
       <c r="C113">
-        <v>2.27914527633096</v>
+        <v>2.291666392190702</v>
       </c>
       <c r="D113">
-        <v>0.136222389086442</v>
+        <v>0.1348135098877001</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3173,10 +2531,10 @@
         <v>115</v>
       </c>
       <c r="C114">
-        <v>2.26083320018324</v>
+        <v>2.279145276330957</v>
       </c>
       <c r="D114">
-        <v>0.138313543940556</v>
+        <v>0.1362223890864425</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3187,10 +2545,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>2.1445280740498</v>
+        <v>2.260833200183235</v>
       </c>
       <c r="D115">
-        <v>0.152491785055091</v>
+        <v>0.1383135439405555</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3201,10 +2559,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>2.06717083488381</v>
+        <v>2.1445280740498</v>
       </c>
       <c r="D116">
-        <v>0.162847872654011</v>
+        <v>0.1524917850550912</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3215,10 +2573,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>2.06310801687011</v>
+        <v>2.067170834883813</v>
       </c>
       <c r="D117">
-        <v>0.163413702174367</v>
+        <v>0.1628478726540113</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3229,10 +2587,10 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>1.99191383461398</v>
+        <v>2.063108016870111</v>
       </c>
       <c r="D118">
-        <v>0.173704046970739</v>
+        <v>0.1634137021743667</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3243,10 +2601,10 @@
         <v>120</v>
       </c>
       <c r="C119">
-        <v>1.94687530419829</v>
+        <v>1.991913834613978</v>
       </c>
       <c r="D119">
-        <v>0.180596653857065</v>
+        <v>0.1737040469707394</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3257,10 +2615,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>1.87952990802279</v>
+        <v>1.946875304198294</v>
       </c>
       <c r="D120">
-        <v>0.191494284176358</v>
+        <v>0.1805966538570647</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3271,10 +2629,10 @@
         <v>122</v>
       </c>
       <c r="C121">
-        <v>1.77859897021306</v>
+        <v>1.879529908022787</v>
       </c>
       <c r="D121">
-        <v>0.209260042938564</v>
+        <v>0.1914942841763577</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3285,10 +2643,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>1.74365905619311</v>
+        <v>1.778598970213058</v>
       </c>
       <c r="D122">
-        <v>0.215841175979767</v>
+        <v>0.2092600429385639</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3299,10 +2657,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>1.71107250067301</v>
+        <v>1.743659056193106</v>
       </c>
       <c r="D123">
-        <v>0.222191272487772</v>
+        <v>0.2158411759797673</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3313,10 +2671,10 @@
         <v>125</v>
       </c>
       <c r="C124">
-        <v>1.57340591467335</v>
+        <v>1.711072500673012</v>
       </c>
       <c r="D124">
-        <v>0.251453634663236</v>
+        <v>0.222191272487772</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3327,10 +2685,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>1.5267530191245</v>
+        <v>1.573405914673351</v>
       </c>
       <c r="D125">
-        <v>0.262336021816</v>
+        <v>0.2514536346632358</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3341,10 +2699,10 @@
         <v>127</v>
       </c>
       <c r="C126">
-        <v>1.49146869326979</v>
+        <v>1.526753019124501</v>
       </c>
       <c r="D126">
-        <v>0.270917483782055</v>
+        <v>0.2623360218159995</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3355,10 +2713,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>1.48096735964129</v>
+        <v>1.491468693269786</v>
       </c>
       <c r="D127">
-        <v>0.273531802690193</v>
+        <v>0.2709174837820551</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3369,10 +2727,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>1.452267649978</v>
+        <v>1.480967359641295</v>
       </c>
       <c r="D128">
-        <v>0.280821483769194</v>
+        <v>0.2735318026901933</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3383,10 +2741,10 @@
         <v>130</v>
       </c>
       <c r="C129">
-        <v>1.33153966031268</v>
+        <v>1.452267649978004</v>
       </c>
       <c r="D129">
-        <v>0.313943937337993</v>
+        <v>0.2808214837691941</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3397,10 +2755,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>1.30812750827303</v>
+        <v>1.331539660312675</v>
       </c>
       <c r="D130">
-        <v>0.320855305505451</v>
+        <v>0.313943937337993</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3411,10 +2769,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>1.22793398534128</v>
+        <v>1.308127508273026</v>
       </c>
       <c r="D131">
-        <v>0.345825588088087</v>
+        <v>0.3208553055054512</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3425,10 +2783,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>1.22459808863937</v>
+        <v>1.227933985341278</v>
       </c>
       <c r="D132">
-        <v>0.346909375506462</v>
+        <v>0.3458255880880871</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3439,10 +2797,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>1.20963134296009</v>
+        <v>1.224598088639369</v>
       </c>
       <c r="D133">
-        <v>0.351817633099387</v>
+        <v>0.3469093755064621</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3453,10 +2811,10 @@
         <v>135</v>
       </c>
       <c r="C134">
-        <v>1.17094009720648</v>
+        <v>1.209631342960094</v>
       </c>
       <c r="D134">
-        <v>0.364859560647968</v>
+        <v>0.3518176330993866</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3467,10 +2825,10 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>1.14707804944057</v>
+        <v>1.170940097206485</v>
       </c>
       <c r="D135">
-        <v>0.373163378146153</v>
+        <v>0.3648595606479683</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3481,10 +2839,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>1.14600809199063</v>
+        <v>1.147078049440574</v>
       </c>
       <c r="D136">
-        <v>0.373540465409767</v>
+        <v>0.3731633781461532</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3495,10 +2853,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>1.11563257117186</v>
+        <v>1.14600809199063</v>
       </c>
       <c r="D137">
-        <v>0.384418823842814</v>
+        <v>0.3735404654097668</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3509,10 +2867,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>1.11201548589399</v>
+        <v>1.11563257117186</v>
       </c>
       <c r="D138">
-        <v>0.385736727237468</v>
+        <v>0.3844188238428141</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3523,10 +2881,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>1.11191106057113</v>
+        <v>1.112015485893993</v>
       </c>
       <c r="D139">
-        <v>0.385774847063206</v>
+        <v>0.3857367272374681</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3537,10 +2895,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>1.09283701294968</v>
+        <v>1.111911060571134</v>
       </c>
       <c r="D140">
-        <v>0.392805892314516</v>
+        <v>0.3857748470632058</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3551,10 +2909,10 @@
         <v>142</v>
       </c>
       <c r="C141">
-        <v>1.08977429515241</v>
+        <v>1.09283701294968</v>
       </c>
       <c r="D141">
-        <v>0.393947588679576</v>
+        <v>0.3928058923145161</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3565,10 +2923,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>1.07728961611841</v>
+        <v>1.089774295152409</v>
       </c>
       <c r="D142">
-        <v>0.398638336420649</v>
+        <v>0.3939475886795759</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3579,10 +2937,10 @@
         <v>144</v>
       </c>
       <c r="C143">
-        <v>0.984771985157294</v>
+        <v>1.077289616118409</v>
       </c>
       <c r="D143">
-        <v>0.435300772440668</v>
+        <v>0.398638336420649</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3593,10 +2951,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>0.983826043907209</v>
+        <v>0.984771985157294</v>
       </c>
       <c r="D144">
-        <v>0.435693462054284</v>
+        <v>0.435300772440668</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3607,10 +2965,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>0.892369522506169</v>
+        <v>0.9838260439072094</v>
       </c>
       <c r="D145">
-        <v>0.475451210291638</v>
+        <v>0.4356934620542838</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3621,10 +2979,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>0.868614651844277</v>
+        <v>0.8923695225061689</v>
       </c>
       <c r="D146">
-        <v>0.486374784074665</v>
+        <v>0.4754512102916376</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3635,10 +2993,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>0.849233543625346</v>
+        <v>0.8686146518442766</v>
       </c>
       <c r="D147">
-        <v>0.495475105704404</v>
+        <v>0.4863747840746648</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3649,10 +3007,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>0.843340702886783</v>
+        <v>0.8492335436253456</v>
       </c>
       <c r="D148">
-        <v>0.498275901058697</v>
+        <v>0.4954751057044042</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3663,10 +3021,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>0.813453230423083</v>
+        <v>0.8433407028867825</v>
       </c>
       <c r="D149">
-        <v>0.512726628461585</v>
+        <v>0.4982759010586967</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3677,10 +3035,10 @@
         <v>151</v>
       </c>
       <c r="C150">
-        <v>0.767864317660093</v>
+        <v>0.8134532304230826</v>
       </c>
       <c r="D150">
-        <v>0.535570687771364</v>
+        <v>0.5127266284615851</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3691,10 +3049,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>0.73572853732472</v>
+        <v>0.767864317660093</v>
       </c>
       <c r="D151">
-        <v>0.552265055135106</v>
+        <v>0.535570687771364</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3705,10 +3063,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>0.717550776353755</v>
+        <v>0.7357285373247203</v>
       </c>
       <c r="D152">
-        <v>0.561927445961462</v>
+        <v>0.5522650551351058</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3719,10 +3077,10 @@
         <v>154</v>
       </c>
       <c r="C153">
-        <v>0.704331278561329</v>
+        <v>0.7175507763537551</v>
       </c>
       <c r="D153">
-        <v>0.569054303750833</v>
+        <v>0.5619274459614625</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3733,10 +3091,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>0.700170898275623</v>
+        <v>0.7043312785613293</v>
       </c>
       <c r="D154">
-        <v>0.57131470666273</v>
+        <v>0.5690543037508333</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3747,10 +3105,10 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>0.698187016821283</v>
+        <v>0.7001708982756225</v>
       </c>
       <c r="D155">
-        <v>0.572395530546545</v>
+        <v>0.5713147066627295</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3761,10 +3119,10 @@
         <v>157</v>
       </c>
       <c r="C156">
-        <v>0.697470799394613</v>
+        <v>0.6981870168212826</v>
       </c>
       <c r="D156">
-        <v>0.572786195648462</v>
+        <v>0.572395530546545</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3775,10 +3133,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>0.696070106648425</v>
+        <v>0.6974707993946127</v>
       </c>
       <c r="D157">
-        <v>0.573550929562664</v>
+        <v>0.5727861956484616</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3789,10 +3147,10 @@
         <v>159</v>
       </c>
       <c r="C158">
-        <v>0.684253731672727</v>
+        <v>0.6960701066484254</v>
       </c>
       <c r="D158">
-        <v>0.580040117447818</v>
+        <v>0.573550929562664</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3803,10 +3161,10 @@
         <v>160</v>
       </c>
       <c r="C159">
-        <v>0.656842100113148</v>
+        <v>0.6842537316727273</v>
       </c>
       <c r="D159">
-        <v>0.59535442176986</v>
+        <v>0.5800401174478185</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3817,10 +3175,10 @@
         <v>161</v>
       </c>
       <c r="C160">
-        <v>0.646686041607289</v>
+        <v>0.656842100113148</v>
       </c>
       <c r="D160">
-        <v>0.601120920674894</v>
+        <v>0.5953544217698601</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3831,10 +3189,10 @@
         <v>162</v>
       </c>
       <c r="C161">
-        <v>0.642601911897729</v>
+        <v>0.6466860416072887</v>
       </c>
       <c r="D161">
-        <v>0.603453937665053</v>
+        <v>0.6011209206748935</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3845,10 +3203,10 @@
         <v>163</v>
       </c>
       <c r="C162">
-        <v>0.575819016425859</v>
+        <v>0.6426019118977288</v>
       </c>
       <c r="D162">
-        <v>0.642743017073408</v>
+        <v>0.6034539376650532</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3859,10 +3217,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>0.563414373736939</v>
+        <v>0.5758190164258589</v>
       </c>
       <c r="D163">
-        <v>0.650274885452972</v>
+        <v>0.642743017073408</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3873,10 +3231,10 @@
         <v>165</v>
       </c>
       <c r="C164">
-        <v>0.558703080249776</v>
+        <v>0.5634143737369386</v>
       </c>
       <c r="D164">
-        <v>0.653154407030563</v>
+        <v>0.6502748854529721</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3887,10 +3245,10 @@
         <v>166</v>
       </c>
       <c r="C165">
-        <v>0.551305862093448</v>
+        <v>0.5587030802497762</v>
       </c>
       <c r="D165">
-        <v>0.657696425315942</v>
+        <v>0.6531544070305635</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3901,10 +3259,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>0.545642000976423</v>
+        <v>0.5513058620934481</v>
       </c>
       <c r="D166">
-        <v>0.661191282070918</v>
+        <v>0.6576964253159423</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3915,10 +3273,10 @@
         <v>168</v>
       </c>
       <c r="C167">
-        <v>0.470105232989062</v>
+        <v>0.5456420009764228</v>
       </c>
       <c r="D167">
-        <v>0.709174528582906</v>
+        <v>0.6611912820709185</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3929,10 +3287,10 @@
         <v>169</v>
       </c>
       <c r="C168">
-        <v>0.467978617959626</v>
+        <v>0.4701052329890617</v>
       </c>
       <c r="D168">
-        <v>0.710560865332863</v>
+        <v>0.7091745285829061</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3943,10 +3301,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>0.456461062315857</v>
+        <v>0.4679786179596264</v>
       </c>
       <c r="D169">
-        <v>0.718100910047388</v>
+        <v>0.7105608653328626</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3957,10 +3315,10 @@
         <v>171</v>
       </c>
       <c r="C170">
-        <v>0.453329819568678</v>
+        <v>0.456461062315857</v>
       </c>
       <c r="D170">
-        <v>0.7201599413734</v>
+        <v>0.7181009100473879</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3971,10 +3329,10 @@
         <v>172</v>
       </c>
       <c r="C171">
-        <v>0.443193835864222</v>
+        <v>0.4533298195686778</v>
       </c>
       <c r="D171">
-        <v>0.726851328697951</v>
+        <v>0.7201599413734004</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3985,10 +3343,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>0.411325838413925</v>
+        <v>0.4431938358642215</v>
       </c>
       <c r="D172">
-        <v>0.748137955149456</v>
+        <v>0.7268513286979505</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3999,10 +3357,10 @@
         <v>174</v>
       </c>
       <c r="C173">
-        <v>0.337055024824063</v>
+        <v>0.4113258384139249</v>
       </c>
       <c r="D173">
-        <v>0.798974328009801</v>
+        <v>0.7481379551494565</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4013,10 +3371,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>0.328340803325634</v>
+        <v>0.337055024824063</v>
       </c>
       <c r="D174">
-        <v>0.805024041337483</v>
+        <v>0.7989743280098012</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4027,10 +3385,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>0.327972317274922</v>
+        <v>0.3283408033256344</v>
       </c>
       <c r="D175">
-        <v>0.805280137033446</v>
+        <v>0.8050240413374825</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4041,10 +3399,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>0.283456822492127</v>
+        <v>0.3279723172749217</v>
       </c>
       <c r="D176">
-        <v>0.836330081608926</v>
+        <v>0.8052801370334461</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4055,10 +3413,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>0.265008452707218</v>
+        <v>0.2834568224921265</v>
       </c>
       <c r="D177">
-        <v>0.849219570169626</v>
+        <v>0.8363300816089263</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4069,10 +3427,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>0.262282692117973</v>
+        <v>0.265008452707218</v>
       </c>
       <c r="D178">
-        <v>0.851122537466959</v>
+        <v>0.8492195701696263</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4083,10 +3441,10 @@
         <v>180</v>
       </c>
       <c r="C179">
-        <v>0.236320741212084</v>
+        <v>0.2622826921179732</v>
       </c>
       <c r="D179">
-        <v>0.869200826987289</v>
+        <v>0.8511225374669594</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4097,10 +3455,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>0.231409357487104</v>
+        <v>0.236320741212084</v>
       </c>
       <c r="D180">
-        <v>0.872606788617641</v>
+        <v>0.8692008269872886</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4111,10 +3469,10 @@
         <v>182</v>
       </c>
       <c r="C181">
-        <v>0.216598913376507</v>
+        <v>0.2314093574871037</v>
       </c>
       <c r="D181">
-        <v>0.882837630515093</v>
+        <v>0.8726067886176407</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4125,10 +3483,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>0.17703759379954</v>
+        <v>0.2165989133765068</v>
       </c>
       <c r="D182">
-        <v>0.909724146402395</v>
+        <v>0.8828376305150931</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4139,10 +3497,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>0.155017272213877</v>
+        <v>0.17703759379954</v>
       </c>
       <c r="D183">
-        <v>0.924267526140392</v>
+        <v>0.9097241464023951</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4153,10 +3511,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>0.135694352404964</v>
+        <v>0.1550172722138767</v>
       </c>
       <c r="D184">
-        <v>0.936669335376635</v>
+        <v>0.9242675261403915</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4167,10 +3525,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>0.0742068903868316</v>
+        <v>0.135694352404964</v>
       </c>
       <c r="D185">
-        <v>0.972600606957285</v>
+        <v>0.9366693353766349</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4181,14 +3539,27 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>0.0447759982268908</v>
+        <v>0.07420689038683156</v>
       </c>
       <c r="D186">
-        <v>0.986728195556377</v>
+        <v>0.9726006069572855</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187">
+        <v>0.04477599822689084</v>
+      </c>
+      <c r="D187">
+        <v>0.9867281955563771</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/feature_analysis/metabolite_f.xlsx
+++ b/feature_analysis/metabolite_f.xlsx
@@ -957,7 +957,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3435,7 +3435,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
